--- a/2020 Deployment Schedule Final.xlsx
+++ b/2020 Deployment Schedule Final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maura Vitelli\Documents\Salesforce DTC\Schedules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CB1EEB-2389-4977-83BF-A2ECE68169D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDD1872-522F-4939-9593-E8856583115B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="788" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="788" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release Dates" sheetId="16" r:id="rId1"/>
@@ -115,7 +115,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -126,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="94">
   <si>
     <t>Notes:</t>
   </si>
@@ -521,6 +523,18 @@
   <si>
     <t xml:space="preserve">DTC will be closed for the Federal Holiday listed. No deployments or cases will be worked. </t>
   </si>
+  <si>
+    <t>Check status.salesforce.com for details, our Production org is NA21</t>
+  </si>
+  <si>
+    <t>Salesforce Spring '20 Release Live in Production 12AM EDT!</t>
+  </si>
+  <si>
+    <t>Salesforce Winter '21 Release Live in Production 12AM EDT!</t>
+  </si>
+  <si>
+    <t>Salesforce Summer '20 Release Live in Production 12AM EDT!</t>
+  </si>
 </sst>
 </file>
 
@@ -529,7 +543,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Trebuchet MS"/>
@@ -702,8 +716,17 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -806,6 +829,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1090,7 +1119,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="9">
       <alignment horizontal="center"/>
@@ -1252,13 +1281,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="12" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="15" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="15" borderId="11" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1276,32 +1320,35 @@
     <xf numFmtId="0" fontId="12" fillId="15" borderId="11" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="15" borderId="11" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="15" borderId="12" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="12" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="12" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="14" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="15" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="11" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="8" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -1309,16 +1356,10 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="8" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2">
-      <alignment horizontal="left" indent="3"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="8" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="8">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="8" applyNumberFormat="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="5" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1327,22 +1368,10 @@
     <xf numFmtId="0" fontId="12" fillId="17" borderId="13" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="14" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="11" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="12" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="15" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1408,6 +1437,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="5" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="40% - Accent1" xfId="1" builtinId="31" customBuiltin="1"/>
@@ -1427,7 +1462,47 @@
     <cellStyle name="Title" xfId="9" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="15" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="677">
+  <dxfs count="685">
+    <dxf>
+      <font>
+        <color rgb="FF747474"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF747474"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF747474"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF747474"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF747474"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF747474"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF747474"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF747474"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF747474"/>
@@ -5123,7 +5198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0351481-947E-4129-9F07-E2E12387EC48}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -5266,12 +5341,12 @@
         <f>YEAR(DATE(Calendar6Year,Calendar6MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="B1" s="85" t="str">
+      <c r="B1" s="84" t="str">
         <f>TEXT(DATE(Calendar6Year,Calendar6MonthOption+1,1),"mmmm")</f>
         <v>July</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="G1" s="2"/>
@@ -5446,10 +5521,10 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="70"/>
+      <c r="B9" s="75"/>
       <c r="C9" s="15" t="s">
         <v>10</v>
       </c>
@@ -5491,30 +5566,30 @@
     <row r="11" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="96"/>
       <c r="B11" s="96"/>
-      <c r="C11" s="78" t="s">
+      <c r="C11" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="65" t="s">
+      <c r="D11" s="70" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="65" t="s">
+      <c r="F11" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="66"/>
+      <c r="G11" s="72"/>
     </row>
     <row r="12" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A12" s="97"/>
       <c r="B12" s="97"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="67"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="71"/>
       <c r="E12" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="67"/>
-      <c r="G12" s="68"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="73"/>
     </row>
     <row r="13" spans="1:11" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
@@ -5541,16 +5616,16 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="74" t="s">
+      <c r="C14" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="75" t="s">
+      <c r="D14" s="67" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="9" t="s">
@@ -5560,10 +5635,10 @@
       <c r="G14" s="12"/>
     </row>
     <row r="15" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="71"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="75"/>
+      <c r="A15" s="76"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="67"/>
       <c r="E15" s="11" t="s">
         <v>6</v>
       </c>
@@ -5571,11 +5646,11 @@
       <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="72"/>
-      <c r="B16" s="76" t="s">
+      <c r="A16" s="77"/>
+      <c r="B16" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="77"/>
+      <c r="C16" s="79"/>
       <c r="D16" s="9" t="s">
         <v>55</v>
       </c>
@@ -5593,22 +5668,22 @@
       <c r="B17" s="4">
         <v>44047</v>
       </c>
-      <c r="C17" s="82" t="s">
+      <c r="C17" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="89"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -5629,162 +5704,162 @@
     <mergeCell ref="F14:F16"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:E3 A6:E6 A8:E8 A10:E10 A13:E13 A17:B17 A11:B11 A4:C4">
-    <cfRule type="expression" dxfId="149" priority="32">
+    <cfRule type="expression" dxfId="157" priority="32">
       <formula>MONTH(A3)&lt;&gt;Calendar7MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="148" priority="31">
+    <cfRule type="expression" dxfId="156" priority="31">
       <formula>MONTH(E4)&lt;&gt;Calendar7MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="147" priority="30">
+    <cfRule type="expression" dxfId="155" priority="30">
       <formula>MONTH(E4)&lt;&gt;Calendar7MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F4 F6 F8 F10 F13:F14">
-    <cfRule type="expression" dxfId="146" priority="29">
+    <cfRule type="expression" dxfId="154" priority="29">
       <formula>MONTH(F3)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G4 G6 G8 G10 G13:G15">
-    <cfRule type="expression" dxfId="145" priority="28">
+    <cfRule type="expression" dxfId="153" priority="28">
       <formula>MONTH(G3)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="expression" dxfId="144" priority="27">
+    <cfRule type="expression" dxfId="152" priority="27">
       <formula>MONTH(F4)&lt;&gt;Calendar7MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="expression" dxfId="143" priority="26">
+    <cfRule type="expression" dxfId="151" priority="26">
       <formula>MONTH(F4)&lt;&gt;Calendar7MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="142" priority="15">
+    <cfRule type="expression" dxfId="150" priority="15">
       <formula>MONTH(E16)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D5">
-    <cfRule type="expression" dxfId="141" priority="8">
+    <cfRule type="expression" dxfId="149" priority="8">
       <formula>MONTH(D4)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="140" priority="19">
+    <cfRule type="expression" dxfId="148" priority="19">
       <formula>MONTH(D16)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="139" priority="20">
+    <cfRule type="expression" dxfId="147" priority="20">
       <formula>MONTH(D16)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="138" priority="16">
+    <cfRule type="expression" dxfId="146" priority="16">
       <formula>MONTH(E15)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E15">
-    <cfRule type="expression" dxfId="137" priority="17">
+    <cfRule type="expression" dxfId="145" priority="17">
       <formula>MONTH(E14)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="136" priority="22">
+    <cfRule type="expression" dxfId="144" priority="22">
       <formula>MONTH(D14)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="135" priority="14">
+    <cfRule type="expression" dxfId="143" priority="14">
       <formula>MONTH(C11)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="134" priority="10">
+    <cfRule type="expression" dxfId="142" priority="10">
       <formula>MONTH(E7)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="133" priority="6">
+    <cfRule type="expression" dxfId="141" priority="6">
       <formula>MONTH(D5)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D5">
-    <cfRule type="expression" dxfId="132" priority="7">
+    <cfRule type="expression" dxfId="140" priority="7">
       <formula>MONTH(D4)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="131" priority="21">
+    <cfRule type="expression" dxfId="139" priority="21">
       <formula>MONTH(D16)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="130" priority="12">
+    <cfRule type="expression" dxfId="138" priority="12">
       <formula>MONTH(E12)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="expression" dxfId="129" priority="13">
+    <cfRule type="expression" dxfId="137" priority="13">
       <formula>MONTH(E11)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="128" priority="11">
+    <cfRule type="expression" dxfId="136" priority="11">
       <formula>MONTH(E9)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="127" priority="25">
+    <cfRule type="expression" dxfId="135" priority="25">
       <formula>MONTH(A14)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="126" priority="24">
+    <cfRule type="expression" dxfId="134" priority="24">
       <formula>MONTH(C14)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="125" priority="23">
+    <cfRule type="expression" dxfId="133" priority="23">
       <formula>MONTH(D14)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E15">
-    <cfRule type="expression" dxfId="124" priority="18">
+    <cfRule type="expression" dxfId="132" priority="18">
       <formula>MONTH(E14)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="123" priority="9">
+    <cfRule type="expression" dxfId="131" priority="9">
       <formula>MONTH(D4)&lt;&gt;Calendar6MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="122" priority="5">
+    <cfRule type="expression" dxfId="130" priority="5">
       <formula>MONTH(E5)&lt;&gt;Calendar7MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="121" priority="4">
+    <cfRule type="expression" dxfId="129" priority="4">
       <formula>MONTH(E5)&lt;&gt;Calendar7MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="expression" dxfId="120" priority="3">
+    <cfRule type="expression" dxfId="128" priority="3">
       <formula>MONTH(F5)&lt;&gt;Calendar7MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="expression" dxfId="119" priority="2">
+    <cfRule type="expression" dxfId="127" priority="2">
       <formula>MONTH(F5)&lt;&gt;Calendar7MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="118" priority="1">
+    <cfRule type="expression" dxfId="126" priority="1">
       <formula>MONTH(J7)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5821,12 +5896,12 @@
         <f>YEAR(DATE(Calendar7Year,Calendar7MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="B1" s="85" t="str">
+      <c r="B1" s="84" t="str">
         <f>TEXT(DATE(Calendar7Year,Calendar7MonthOption+1,1),"mmmm")</f>
         <v>August</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="G1" s="2"/>
@@ -5894,16 +5969,16 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="67" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="9" t="s">
@@ -5917,10 +5992,10 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="71"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="75"/>
+      <c r="A5" s="76"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="67"/>
       <c r="E5" s="11" t="s">
         <v>6</v>
       </c>
@@ -5932,11 +6007,11 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="72"/>
-      <c r="B6" s="76" t="s">
+      <c r="A6" s="77"/>
+      <c r="B6" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="77"/>
+      <c r="C6" s="79"/>
       <c r="D6" s="9" t="s">
         <v>21</v>
       </c>
@@ -6024,10 +6099,10 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="70"/>
+      <c r="B10" s="75"/>
       <c r="C10" s="15" t="s">
         <v>10</v>
       </c>
@@ -6065,30 +6140,30 @@
     <row r="12" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12" s="96"/>
       <c r="B12" s="96"/>
-      <c r="C12" s="78" t="s">
+      <c r="C12" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="65" t="s">
+      <c r="D12" s="70" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="65" t="s">
+      <c r="F12" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="66"/>
+      <c r="G12" s="72"/>
     </row>
     <row r="13" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A13" s="97"/>
       <c r="B13" s="97"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="67"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="71"/>
       <c r="E13" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="67"/>
-      <c r="G13" s="68"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="73"/>
     </row>
     <row r="14" spans="1:11" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
@@ -6115,16 +6190,16 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="71" t="s">
+      <c r="A15" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="74" t="s">
+      <c r="C15" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="75" t="s">
+      <c r="D15" s="67" t="s">
         <v>20</v>
       </c>
       <c r="E15" s="9" t="s">
@@ -6134,10 +6209,10 @@
       <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:11" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="71"/>
-      <c r="B16" s="73"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="75"/>
+      <c r="A16" s="76"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="67"/>
       <c r="E16" s="11" t="s">
         <v>6</v>
       </c>
@@ -6145,11 +6220,11 @@
       <c r="G16" s="12"/>
     </row>
     <row r="17" spans="1:7" ht="45.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="72"/>
-      <c r="B17" s="76" t="s">
+      <c r="A17" s="77"/>
+      <c r="B17" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="77"/>
+      <c r="C17" s="79"/>
       <c r="D17" s="9" t="s">
         <v>55</v>
       </c>
@@ -6167,35 +6242,25 @@
       <c r="B18" s="4">
         <v>44075</v>
       </c>
-      <c r="C18" s="82" t="s">
+      <c r="C18" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="84"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B6:C6"/>
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="A10:B10"/>
@@ -6207,159 +6272,169 @@
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="B17:C17"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:E3 A7:E7 A9:E9 A11:E11 A14:E14 A18:B18 A12:B12">
-    <cfRule type="expression" dxfId="117" priority="31">
+    <cfRule type="expression" dxfId="125" priority="31">
       <formula>MONTH(A3)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F4 F7 F9 F11 F14:F16">
-    <cfRule type="expression" dxfId="116" priority="30">
+    <cfRule type="expression" dxfId="124" priority="30">
       <formula>MONTH(F3)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G4 G7 G9 G11 G14:G16">
-    <cfRule type="expression" dxfId="115" priority="29">
+    <cfRule type="expression" dxfId="123" priority="29">
       <formula>MONTH(G3)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="114" priority="8">
+    <cfRule type="expression" dxfId="122" priority="8">
       <formula>MONTH(D6)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="expression" dxfId="113" priority="18">
+    <cfRule type="expression" dxfId="121" priority="18">
       <formula>MONTH(E17)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="112" priority="13">
+    <cfRule type="expression" dxfId="120" priority="13">
       <formula>MONTH(E8)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="expression" dxfId="111" priority="15">
+    <cfRule type="expression" dxfId="119" priority="15">
       <formula>MONTH(E13)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="110" priority="25">
+    <cfRule type="expression" dxfId="118" priority="25">
       <formula>MONTH(D15)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="109" priority="16">
+    <cfRule type="expression" dxfId="117" priority="16">
       <formula>MONTH(E12)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="108" priority="23">
+    <cfRule type="expression" dxfId="116" priority="23">
       <formula>MONTH(D17)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="107" priority="22">
+    <cfRule type="expression" dxfId="115" priority="22">
       <formula>MONTH(D17)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="106" priority="24">
+    <cfRule type="expression" dxfId="114" priority="24">
       <formula>MONTH(D17)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="105" priority="17">
+    <cfRule type="expression" dxfId="113" priority="17">
       <formula>MONTH(C12)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="104" priority="7">
+    <cfRule type="expression" dxfId="112" priority="7">
       <formula>MONTH(D6)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="103" priority="19">
+    <cfRule type="expression" dxfId="111" priority="19">
       <formula>MONTH(E16)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:E16">
-    <cfRule type="expression" dxfId="102" priority="20">
+    <cfRule type="expression" dxfId="110" priority="20">
       <formula>MONTH(E15)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="expression" dxfId="101" priority="14">
+    <cfRule type="expression" dxfId="109" priority="14">
       <formula>MONTH(E10)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="expression" dxfId="100" priority="28">
+    <cfRule type="expression" dxfId="108" priority="28">
       <formula>MONTH(A15)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="99" priority="27">
+    <cfRule type="expression" dxfId="107" priority="27">
       <formula>MONTH(C15)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="98" priority="26">
+    <cfRule type="expression" dxfId="106" priority="26">
       <formula>MONTH(D15)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:E16">
-    <cfRule type="expression" dxfId="97" priority="21">
+    <cfRule type="expression" dxfId="105" priority="21">
       <formula>MONTH(E15)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="96" priority="6">
+    <cfRule type="expression" dxfId="104" priority="6">
       <formula>MONTH(D6)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E5">
-    <cfRule type="expression" dxfId="95" priority="4">
+    <cfRule type="expression" dxfId="103" priority="4">
       <formula>MONTH(E4)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="94" priority="3">
+    <cfRule type="expression" dxfId="102" priority="3">
       <formula>MONTH(E5)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="93" priority="2">
+    <cfRule type="expression" dxfId="101" priority="2">
       <formula>MONTH(E6)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="92" priority="9">
+    <cfRule type="expression" dxfId="100" priority="9">
       <formula>MONTH(D4)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E5">
-    <cfRule type="expression" dxfId="91" priority="5">
+    <cfRule type="expression" dxfId="99" priority="5">
       <formula>MONTH(E4)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="expression" dxfId="90" priority="12">
+    <cfRule type="expression" dxfId="98" priority="12">
       <formula>MONTH(A4)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="89" priority="11">
+    <cfRule type="expression" dxfId="97" priority="11">
       <formula>MONTH(C4)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="88" priority="10">
+    <cfRule type="expression" dxfId="96" priority="10">
       <formula>MONTH(D4)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="87" priority="1">
+    <cfRule type="expression" dxfId="95" priority="1">
       <formula>MONTH(J7)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6396,12 +6471,12 @@
         <f>YEAR(DATE(Calendar8Year,Calendar8MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="B1" s="85" t="str">
+      <c r="B1" s="84" t="str">
         <f>TEXT(DATE(Calendar8Year,Calendar8MonthOption+1,1),"mmmm")</f>
         <v>September</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="G1" s="2"/>
@@ -6517,10 +6592,10 @@
       <c r="A6" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="70"/>
+      <c r="C6" s="75"/>
       <c r="D6" s="15" t="s">
         <v>10</v>
       </c>
@@ -6565,19 +6640,19 @@
     <row r="8" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="96"/>
       <c r="B8" s="96"/>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="70" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="65" t="s">
+      <c r="F8" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="66"/>
+      <c r="G8" s="72"/>
       <c r="J8" s="21"/>
       <c r="K8" t="s">
         <v>30</v>
@@ -6586,13 +6661,13 @@
     <row r="9" spans="1:11" ht="69" x14ac:dyDescent="0.3">
       <c r="A9" s="97"/>
       <c r="B9" s="97"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="67"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="71"/>
       <c r="E9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="67"/>
-      <c r="G9" s="68"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="73"/>
       <c r="J9" s="22"/>
       <c r="K9" t="s">
         <v>31</v>
@@ -6623,16 +6698,16 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="71" t="s">
+      <c r="A11" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="75" t="s">
+      <c r="D11" s="67" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="9" t="s">
@@ -6642,10 +6717,10 @@
       <c r="G11" s="101"/>
     </row>
     <row r="12" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="71"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="75"/>
+      <c r="A12" s="76"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="67"/>
       <c r="E12" s="11" t="s">
         <v>6</v>
       </c>
@@ -6653,11 +6728,11 @@
       <c r="G12" s="102"/>
     </row>
     <row r="13" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="72"/>
-      <c r="B13" s="76" t="s">
+      <c r="A13" s="77"/>
+      <c r="B13" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="77"/>
+      <c r="C13" s="79"/>
       <c r="D13" s="9" t="s">
         <v>55</v>
       </c>
@@ -6712,25 +6787,32 @@
       <c r="B16" s="4">
         <v>44110</v>
       </c>
-      <c r="C16" s="82" t="s">
+      <c r="C16" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="F8:G9"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="F11:F13"/>
@@ -6740,126 +6822,119 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="F8:G9"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:E3 A5:E5 A7:E7 A10:E10 A14:E14 A16:B16 A8:B8">
-    <cfRule type="expression" dxfId="86" priority="23">
+    <cfRule type="expression" dxfId="94" priority="23">
       <formula>MONTH(A3)&lt;&gt;Calendar9MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="expression" dxfId="85" priority="22">
+    <cfRule type="expression" dxfId="93" priority="22">
       <formula>MONTH(A6)&lt;&gt;Calendar9MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="expression" dxfId="84" priority="21">
+    <cfRule type="expression" dxfId="92" priority="21">
       <formula>MONTH(A6)&lt;&gt;Calendar9MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3 F5 F7 F10:F11 F14">
-    <cfRule type="expression" dxfId="83" priority="20">
+    <cfRule type="expression" dxfId="91" priority="20">
       <formula>MONTH(F3)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3 G5 G7 G10:G11 G14">
-    <cfRule type="expression" dxfId="82" priority="19">
+    <cfRule type="expression" dxfId="90" priority="19">
       <formula>MONTH(G3)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E12">
-    <cfRule type="expression" dxfId="81" priority="11">
+    <cfRule type="expression" dxfId="89" priority="11">
       <formula>MONTH(E11)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="80" priority="15">
+    <cfRule type="expression" dxfId="88" priority="15">
       <formula>MONTH(D11)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="79" priority="12">
+    <cfRule type="expression" dxfId="87" priority="12">
       <formula>MONTH(D13)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="78" priority="13">
+    <cfRule type="expression" dxfId="86" priority="13">
       <formula>MONTH(D13)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="77" priority="4">
+    <cfRule type="expression" dxfId="85" priority="4">
       <formula>MONTH(E6)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="expression" dxfId="76" priority="8">
+    <cfRule type="expression" dxfId="84" priority="8">
       <formula>MONTH(E13)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E12">
-    <cfRule type="expression" dxfId="75" priority="10">
+    <cfRule type="expression" dxfId="83" priority="10">
       <formula>MONTH(E11)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="74" priority="9">
+    <cfRule type="expression" dxfId="82" priority="9">
       <formula>MONTH(E12)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="73" priority="14">
+    <cfRule type="expression" dxfId="81" priority="14">
       <formula>MONTH(D13)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="expression" dxfId="72" priority="18">
+    <cfRule type="expression" dxfId="80" priority="18">
       <formula>MONTH(A11)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="71" priority="17">
+    <cfRule type="expression" dxfId="79" priority="17">
       <formula>MONTH(C11)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="70" priority="16">
+    <cfRule type="expression" dxfId="78" priority="16">
       <formula>MONTH(D11)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="69" priority="5">
+    <cfRule type="expression" dxfId="77" priority="5">
       <formula>MONTH(E9)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="68" priority="6">
+    <cfRule type="expression" dxfId="76" priority="6">
       <formula>MONTH(E8)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="67" priority="7">
+    <cfRule type="expression" dxfId="75" priority="7">
       <formula>MONTH(C8)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="66" priority="3">
+    <cfRule type="expression" dxfId="74" priority="3">
       <formula>MONTH(E4)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="65" priority="2">
+    <cfRule type="expression" dxfId="73" priority="2">
       <formula>MONTH(E15)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="64" priority="1">
+    <cfRule type="expression" dxfId="72" priority="1">
       <formula>MONTH(J7)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6878,7 +6953,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6899,12 +6974,12 @@
         <f>YEAR(DATE(Calendar9Year,Calendar9MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="B1" s="85" t="str">
+      <c r="B1" s="84" t="str">
         <f>TEXT(DATE(Calendar9Year,Calendar9MonthOption+1,1),"mmmm")</f>
         <v>October</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="G1" s="2"/>
@@ -7017,10 +7092,10 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="70"/>
+      <c r="B6" s="75"/>
       <c r="C6" s="15" t="s">
         <v>10</v>
       </c>
@@ -7064,38 +7139,42 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="80" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="104"/>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="70" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="65" t="s">
+      <c r="F8" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="66"/>
+      <c r="G8" s="76"/>
       <c r="J8" s="21"/>
       <c r="K8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="95"/>
+    <row r="9" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="81"/>
       <c r="B9" s="109"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="67"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="71"/>
       <c r="E9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="67"/>
-      <c r="G9" s="68"/>
+      <c r="F9" s="117" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="117" t="s">
+        <v>90</v>
+      </c>
       <c r="J9" s="22"/>
       <c r="K9" t="s">
         <v>31</v>
@@ -7126,16 +7205,16 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="71" t="s">
+      <c r="A11" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="75" t="s">
+      <c r="D11" s="67" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="9" t="s">
@@ -7145,10 +7224,10 @@
       <c r="G11" s="101"/>
     </row>
     <row r="12" spans="1:11" ht="48.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="71"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="75"/>
+      <c r="A12" s="76"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="67"/>
       <c r="E12" s="11" t="s">
         <v>6</v>
       </c>
@@ -7156,11 +7235,11 @@
       <c r="G12" s="102"/>
     </row>
     <row r="13" spans="1:11" ht="49.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="72"/>
-      <c r="B13" s="76" t="s">
+      <c r="A13" s="77"/>
+      <c r="B13" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="77"/>
+      <c r="C13" s="79"/>
       <c r="D13" s="9" t="s">
         <v>55</v>
       </c>
@@ -7215,26 +7294,32 @@
       <c r="B16" s="4">
         <v>44138</v>
       </c>
-      <c r="C16" s="82" t="s">
+      <c r="C16" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="F8:G9"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="C16:G16"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="F11:F13"/>
     <mergeCell ref="G11:G13"/>
@@ -7243,117 +7328,126 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="F8:G8"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:E3 A5:E5 A7:E7 A10:E10 A14:E14 A16:B16 A8:B8">
-    <cfRule type="expression" dxfId="63" priority="21">
+    <cfRule type="expression" dxfId="71" priority="25">
       <formula>MONTH(A3)&lt;&gt;Calendar10MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3 F5 F7 F10:F11 F14">
-    <cfRule type="expression" dxfId="62" priority="20">
+    <cfRule type="expression" dxfId="70" priority="24">
       <formula>MONTH(F3)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3 G5 G7 G10:G11 G14">
-    <cfRule type="expression" dxfId="61" priority="19">
+    <cfRule type="expression" dxfId="69" priority="23">
       <formula>MONTH(G3)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="60" priority="14">
+    <cfRule type="expression" dxfId="68" priority="18">
       <formula>MONTH(D11)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="59" priority="4">
+    <cfRule type="expression" dxfId="67" priority="8">
       <formula>MONTH(E9)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="58" priority="18">
+    <cfRule type="expression" dxfId="66" priority="22">
       <formula>MONTH(E4)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="57" priority="12">
+    <cfRule type="expression" dxfId="65" priority="16">
       <formula>MONTH(D13)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="56" priority="11">
+    <cfRule type="expression" dxfId="64" priority="15">
       <formula>MONTH(D13)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="expression" dxfId="55" priority="7">
+    <cfRule type="expression" dxfId="63" priority="11">
       <formula>MONTH(E13)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E12">
-    <cfRule type="expression" dxfId="54" priority="9">
+    <cfRule type="expression" dxfId="62" priority="13">
       <formula>MONTH(E11)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="53" priority="8">
+    <cfRule type="expression" dxfId="61" priority="12">
       <formula>MONTH(E12)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="52" priority="13">
+    <cfRule type="expression" dxfId="60" priority="17">
       <formula>MONTH(D13)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="expression" dxfId="51" priority="17">
+    <cfRule type="expression" dxfId="59" priority="21">
       <formula>MONTH(A11)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="50" priority="16">
+    <cfRule type="expression" dxfId="58" priority="20">
       <formula>MONTH(C11)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="49" priority="15">
+    <cfRule type="expression" dxfId="57" priority="19">
       <formula>MONTH(D11)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E12">
-    <cfRule type="expression" dxfId="48" priority="10">
+    <cfRule type="expression" dxfId="56" priority="14">
       <formula>MONTH(E11)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="47" priority="5">
+    <cfRule type="expression" dxfId="55" priority="9">
       <formula>MONTH(E8)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="46" priority="6">
+    <cfRule type="expression" dxfId="54" priority="10">
       <formula>MONTH(C8)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="45" priority="3">
+    <cfRule type="expression" dxfId="53" priority="7">
       <formula>MONTH(E6)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="44" priority="2">
+    <cfRule type="expression" dxfId="52" priority="6">
       <formula>MONTH(E15)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="43" priority="1">
+    <cfRule type="expression" dxfId="51" priority="5">
       <formula>MONTH(J7)&lt;&gt;Calendar1MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>MONTH(F9)&lt;&gt;Calendar2MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>MONTH(G9)&lt;&gt;Calendar2MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>MONTH(F8)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
@@ -7390,12 +7484,12 @@
         <f>YEAR(DATE(Calendar10Year,Calendar10MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="B1" s="85" t="str">
+      <c r="B1" s="84" t="str">
         <f>TEXT(DATE(Calendar10Year,Calendar10MonthOption+1,1),"mmmm")</f>
         <v>November</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="G1" s="2"/>
@@ -7508,10 +7602,10 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="70"/>
+      <c r="B6" s="75"/>
       <c r="C6" s="15" t="s">
         <v>10</v>
       </c>
@@ -7556,22 +7650,22 @@
     </row>
     <row r="8" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="96"/>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="70" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="65" t="s">
+      <c r="F8" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="66"/>
+      <c r="G8" s="72"/>
       <c r="J8" s="21"/>
       <c r="K8" t="s">
         <v>30</v>
@@ -7579,14 +7673,14 @@
     </row>
     <row r="9" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A9" s="97"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="67"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="71"/>
       <c r="E9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="67"/>
-      <c r="G9" s="68"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="73"/>
       <c r="J9" s="22"/>
       <c r="K9" t="s">
         <v>31</v>
@@ -7617,16 +7711,16 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="60.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="71" t="s">
+      <c r="A11" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="75" t="s">
+      <c r="D11" s="67" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="9" t="s">
@@ -7636,10 +7730,10 @@
       <c r="G11" s="101"/>
     </row>
     <row r="12" spans="1:11" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="71"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="75"/>
+      <c r="A12" s="76"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="67"/>
       <c r="E12" s="11" t="s">
         <v>6</v>
       </c>
@@ -7647,11 +7741,11 @@
       <c r="G12" s="102"/>
     </row>
     <row r="13" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="72"/>
-      <c r="B13" s="76" t="s">
+      <c r="A13" s="77"/>
+      <c r="B13" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="77"/>
+      <c r="C13" s="79"/>
       <c r="D13" s="9" t="s">
         <v>55</v>
       </c>
@@ -7706,27 +7800,35 @@
       <c r="B16" s="4">
         <v>44166</v>
       </c>
-      <c r="C16" s="82" t="s">
+      <c r="C16" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="69" t="s">
+      <c r="A17" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="70"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="C16:G16"/>
     <mergeCell ref="F8:G9"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="F11:F13"/>
@@ -7736,122 +7838,114 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="C16:G16"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:E3 A5:E5 A7:E7 A10:E10 A14:E14 A16:B16 A8:B8">
-    <cfRule type="expression" dxfId="42" priority="22">
+    <cfRule type="expression" dxfId="50" priority="22">
       <formula>MONTH(A3)&lt;&gt;Calendar11MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="41" priority="21">
+    <cfRule type="expression" dxfId="49" priority="21">
       <formula>MONTH(C8)&lt;&gt;Calendar11MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3 F5 F7 F10:F11 F14">
-    <cfRule type="expression" dxfId="40" priority="20">
+    <cfRule type="expression" dxfId="48" priority="20">
       <formula>MONTH(F3)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3 G5 G7 G10:G11 G14">
-    <cfRule type="expression" dxfId="39" priority="19">
+    <cfRule type="expression" dxfId="47" priority="19">
       <formula>MONTH(G3)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="38" priority="15">
+    <cfRule type="expression" dxfId="46" priority="15">
       <formula>MONTH(D11)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="37" priority="13">
+    <cfRule type="expression" dxfId="45" priority="13">
       <formula>MONTH(D13)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="36" priority="12">
+    <cfRule type="expression" dxfId="44" priority="12">
       <formula>MONTH(D13)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="expression" dxfId="35" priority="8">
+    <cfRule type="expression" dxfId="43" priority="8">
       <formula>MONTH(E13)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E12">
-    <cfRule type="expression" dxfId="34" priority="10">
+    <cfRule type="expression" dxfId="42" priority="10">
       <formula>MONTH(E11)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="33" priority="9">
+    <cfRule type="expression" dxfId="41" priority="9">
       <formula>MONTH(E12)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="32" priority="14">
+    <cfRule type="expression" dxfId="40" priority="14">
       <formula>MONTH(D13)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="expression" dxfId="31" priority="18">
+    <cfRule type="expression" dxfId="39" priority="18">
       <formula>MONTH(A11)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="30" priority="17">
+    <cfRule type="expression" dxfId="38" priority="17">
       <formula>MONTH(C11)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="29" priority="16">
+    <cfRule type="expression" dxfId="37" priority="16">
       <formula>MONTH(D11)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E12">
-    <cfRule type="expression" dxfId="28" priority="11">
+    <cfRule type="expression" dxfId="36" priority="11">
       <formula>MONTH(E11)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="27" priority="5">
+    <cfRule type="expression" dxfId="35" priority="5">
       <formula>MONTH(E9)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="26" priority="6">
+    <cfRule type="expression" dxfId="34" priority="6">
       <formula>MONTH(E8)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="25" priority="7">
+    <cfRule type="expression" dxfId="33" priority="7">
       <formula>MONTH(B8)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="24" priority="4">
+    <cfRule type="expression" dxfId="32" priority="4">
       <formula>MONTH(E6)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="23" priority="3">
+    <cfRule type="expression" dxfId="31" priority="3">
       <formula>MONTH(E4)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="22" priority="2">
+    <cfRule type="expression" dxfId="30" priority="2">
       <formula>MONTH(E15)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="21" priority="1">
+    <cfRule type="expression" dxfId="29" priority="1">
       <formula>MONTH(J7)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8053,19 +8147,19 @@
     <row r="6" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="96"/>
       <c r="B6" s="96"/>
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="70" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="65" t="s">
+      <c r="F6" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="66"/>
+      <c r="G6" s="72"/>
       <c r="J6" s="45"/>
       <c r="K6" s="35" t="s">
         <v>28</v>
@@ -8082,13 +8176,13 @@
     <row r="7" spans="1:19" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A7" s="97"/>
       <c r="B7" s="97"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="67"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="71"/>
       <c r="E7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="67"/>
-      <c r="G7" s="68"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="73"/>
       <c r="J7" s="10"/>
       <c r="K7" s="35" t="s">
         <v>29</v>
@@ -8139,16 +8233,16 @@
       <c r="S8" s="110"/>
     </row>
     <row r="9" spans="1:19" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="75" t="s">
+      <c r="D9" s="67" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="9" t="s">
@@ -8170,10 +8264,10 @@
       <c r="S9" s="110"/>
     </row>
     <row r="10" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="71"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="75"/>
+      <c r="A10" s="76"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="67"/>
       <c r="E10" s="11" t="s">
         <v>6</v>
       </c>
@@ -8189,11 +8283,11 @@
       <c r="S10" s="110"/>
     </row>
     <row r="11" spans="1:19" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="72"/>
-      <c r="B11" s="76" t="s">
+      <c r="A11" s="77"/>
+      <c r="B11" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="77"/>
+      <c r="C11" s="79"/>
       <c r="D11" s="9" t="s">
         <v>55</v>
       </c>
@@ -8837,107 +8931,107 @@
     <mergeCell ref="B11:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:E3 A5:E5 A8:E8 A12:E12 A14:E14 A16:B16 A6:B6">
-    <cfRule type="expression" dxfId="20" priority="21">
+    <cfRule type="expression" dxfId="28" priority="21">
       <formula>MONTH(A3)&lt;&gt;Calendar12MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="expression" dxfId="19" priority="20">
+    <cfRule type="expression" dxfId="27" priority="20">
       <formula>MONTH(E13)&lt;&gt;Calendar12MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="expression" dxfId="18" priority="19">
+    <cfRule type="expression" dxfId="26" priority="19">
       <formula>MONTH(E13)&lt;&gt;Calendar12MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3 F5 F8:F10 F12 F14">
-    <cfRule type="expression" dxfId="17" priority="18">
+    <cfRule type="expression" dxfId="25" priority="18">
       <formula>MONTH(F3)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3 G5 G8:G10 G12 G14">
-    <cfRule type="expression" dxfId="16" priority="17">
+    <cfRule type="expression" dxfId="24" priority="17">
       <formula>MONTH(G3)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="15" priority="13">
+    <cfRule type="expression" dxfId="23" priority="13">
       <formula>MONTH(D9)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="14" priority="11">
+    <cfRule type="expression" dxfId="22" priority="11">
       <formula>MONTH(D11)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="13" priority="10">
+    <cfRule type="expression" dxfId="21" priority="10">
       <formula>MONTH(D11)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="expression" dxfId="12" priority="6">
+    <cfRule type="expression" dxfId="20" priority="6">
       <formula>MONTH(E11)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E10">
-    <cfRule type="expression" dxfId="11" priority="8">
+    <cfRule type="expression" dxfId="19" priority="8">
       <formula>MONTH(E9)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="expression" dxfId="10" priority="7">
+    <cfRule type="expression" dxfId="18" priority="7">
       <formula>MONTH(E10)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="9" priority="12">
+    <cfRule type="expression" dxfId="17" priority="12">
       <formula>MONTH(D11)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="expression" dxfId="8" priority="16">
+    <cfRule type="expression" dxfId="16" priority="16">
       <formula>MONTH(A9)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="7" priority="15">
+    <cfRule type="expression" dxfId="15" priority="15">
       <formula>MONTH(C9)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="6" priority="14">
+    <cfRule type="expression" dxfId="14" priority="14">
       <formula>MONTH(D9)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E10">
-    <cfRule type="expression" dxfId="5" priority="9">
+    <cfRule type="expression" dxfId="13" priority="9">
       <formula>MONTH(E9)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="12" priority="3">
       <formula>MONTH(E7)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="11" priority="4">
       <formula>MONTH(E6)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="2" priority="5">
+    <cfRule type="expression" dxfId="10" priority="5">
       <formula>MONTH(C6)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>MONTH(E4)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>MONTH(J7)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9183,12 +9277,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="L3:N3"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="B4:D4"/>
@@ -9202,84 +9290,90 @@
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="L9:N9"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="676" priority="16">
+    <cfRule type="expression" dxfId="684" priority="16">
       <formula>MONTH(A2)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="675" priority="15">
+    <cfRule type="expression" dxfId="683" priority="15">
       <formula>MONTH(A3)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="674" priority="14">
+    <cfRule type="expression" dxfId="682" priority="14">
       <formula>MONTH(A8)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="expression" dxfId="673" priority="13">
+    <cfRule type="expression" dxfId="681" priority="13">
       <formula>MONTH(A9)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="expression" dxfId="672" priority="12">
+    <cfRule type="expression" dxfId="680" priority="12">
       <formula>MONTH(F4)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F6">
-    <cfRule type="expression" dxfId="671" priority="11">
+    <cfRule type="expression" dxfId="679" priority="11">
       <formula>MONTH(F5)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="expression" dxfId="670" priority="10">
+    <cfRule type="expression" dxfId="678" priority="10">
       <formula>MONTH(F8)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="expression" dxfId="669" priority="9">
+    <cfRule type="expression" dxfId="677" priority="9">
       <formula>MONTH(F9)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="668" priority="8">
+    <cfRule type="expression" dxfId="676" priority="8">
       <formula>MONTH(K5)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:K7">
-    <cfRule type="expression" dxfId="667" priority="7">
+    <cfRule type="expression" dxfId="675" priority="7">
       <formula>MONTH(K6)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:K7">
-    <cfRule type="expression" dxfId="666" priority="6">
+    <cfRule type="expression" dxfId="674" priority="6">
       <formula>MONTH(K6)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="665" priority="5">
+    <cfRule type="expression" dxfId="673" priority="5">
       <formula>MONTH(F10)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="664" priority="4">
+    <cfRule type="expression" dxfId="672" priority="4">
       <formula>MONTH(F10)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="expression" dxfId="663" priority="3">
+    <cfRule type="expression" dxfId="671" priority="3">
       <formula>MONTH(K4)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="expression" dxfId="662" priority="2">
+    <cfRule type="expression" dxfId="670" priority="2">
       <formula>MONTH(K3)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2">
-    <cfRule type="expression" dxfId="661" priority="1">
+    <cfRule type="expression" dxfId="669" priority="1">
       <formula>MONTH(K2)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9317,11 +9411,11 @@
       <c r="B1" s="1">
         <v>2020</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -9496,10 +9590,10 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="70"/>
+      <c r="C9" s="75"/>
       <c r="D9" s="15" t="s">
         <v>10</v>
       </c>
@@ -9543,30 +9637,30 @@
         <v>12</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="78" t="s">
+      <c r="D11" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="65" t="s">
+      <c r="E11" s="70" t="s">
         <v>14</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="65" t="s">
+      <c r="G11" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="66"/>
+      <c r="H11" s="72"/>
     </row>
     <row r="12" spans="1:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="10"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="67"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="71"/>
       <c r="F12" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="67"/>
-      <c r="H12" s="68"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="73"/>
     </row>
     <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
@@ -9593,16 +9687,16 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="73" t="s">
+      <c r="C14" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="74" t="s">
+      <c r="D14" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="75" t="s">
+      <c r="E14" s="67" t="s">
         <v>20</v>
       </c>
       <c r="F14" s="9" t="s">
@@ -9612,10 +9706,10 @@
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:12" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="71"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="75"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="67"/>
       <c r="F15" s="11" t="s">
         <v>6</v>
       </c>
@@ -9623,11 +9717,11 @@
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="72"/>
-      <c r="C16" s="76" t="s">
+      <c r="B16" s="77"/>
+      <c r="C16" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="77"/>
+      <c r="D16" s="79"/>
       <c r="E16" s="9" t="s">
         <v>21</v>
       </c>
@@ -9645,24 +9739,24 @@
       <c r="C17" s="12">
         <v>43865</v>
       </c>
-      <c r="D17" s="87" t="s">
+      <c r="D17" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
     </row>
     <row r="18" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
     </row>
     <row r="19" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A19" s="2"/>
@@ -9670,12 +9764,12 @@
         <f>YEAR(DATE(Calendar1Year,Calendar1MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C19" s="85" t="str">
+      <c r="C19" s="84" t="str">
         <f>TEXT(DATE(Calendar1Year,Calendar1MonthOption+1,1),"mmmm")</f>
         <v>February</v>
       </c>
-      <c r="D19" s="85"/>
-      <c r="E19" s="85"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="2"/>
@@ -9736,16 +9830,16 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="71" t="s">
+      <c r="B22" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="73" t="s">
+      <c r="C22" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="74" t="s">
+      <c r="D22" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="75" t="s">
+      <c r="E22" s="67" t="s">
         <v>20</v>
       </c>
       <c r="F22" s="9" t="s">
@@ -9755,10 +9849,10 @@
       <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:8" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="71"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="75"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="67"/>
       <c r="F23" s="11" t="s">
         <v>6</v>
       </c>
@@ -9766,11 +9860,11 @@
       <c r="H23" s="12"/>
     </row>
     <row r="24" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="72"/>
-      <c r="C24" s="76" t="s">
+      <c r="B24" s="77"/>
+      <c r="C24" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="77"/>
+      <c r="D24" s="79"/>
       <c r="E24" s="9" t="s">
         <v>21</v>
       </c>
@@ -9842,10 +9936,10 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="69" t="s">
+      <c r="B28" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="70"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="15" t="s">
         <v>10</v>
       </c>
@@ -9885,30 +9979,30 @@
         <v>32</v>
       </c>
       <c r="C30" s="4"/>
-      <c r="D30" s="78" t="s">
+      <c r="D30" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="65" t="s">
+      <c r="E30" s="70" t="s">
         <v>14</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="65" t="s">
+      <c r="G30" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="66"/>
+      <c r="H30" s="72"/>
     </row>
     <row r="31" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="23"/>
       <c r="C31" s="8"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="67"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="71"/>
       <c r="F31" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G31" s="67"/>
-      <c r="H31" s="68"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="73"/>
     </row>
     <row r="32" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
@@ -9935,16 +10029,16 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="71" t="s">
+      <c r="B33" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="73" t="s">
+      <c r="C33" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="74" t="s">
+      <c r="D33" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="75" t="s">
+      <c r="E33" s="67" t="s">
         <v>20</v>
       </c>
       <c r="F33" s="9" t="s">
@@ -9954,10 +10048,10 @@
       <c r="H33" s="12"/>
     </row>
     <row r="34" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="71"/>
-      <c r="C34" s="73"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="75"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="67"/>
       <c r="F34" s="11" t="s">
         <v>6</v>
       </c>
@@ -9965,11 +10059,11 @@
       <c r="H34" s="12"/>
     </row>
     <row r="35" spans="1:8" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="72"/>
-      <c r="C35" s="76" t="s">
+      <c r="B35" s="77"/>
+      <c r="C35" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="77"/>
+      <c r="D35" s="79"/>
       <c r="E35" s="9" t="s">
         <v>21</v>
       </c>
@@ -9987,22 +10081,22 @@
       <c r="C36" s="4">
         <v>43893</v>
       </c>
-      <c r="D36" s="86" t="s">
+      <c r="D36" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="E36" s="86"/>
-      <c r="F36" s="86"/>
-      <c r="G36" s="86"/>
-      <c r="H36" s="86"/>
+      <c r="E36" s="91"/>
+      <c r="F36" s="91"/>
+      <c r="G36" s="91"/>
+      <c r="H36" s="91"/>
     </row>
     <row r="37" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
-      <c r="D37" s="84"/>
-      <c r="E37" s="84"/>
-      <c r="F37" s="84"/>
-      <c r="G37" s="84"/>
-      <c r="H37" s="84"/>
+      <c r="D37" s="87"/>
+      <c r="E37" s="87"/>
+      <c r="F37" s="87"/>
+      <c r="G37" s="87"/>
+      <c r="H37" s="87"/>
     </row>
     <row r="38" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A38" s="2"/>
@@ -10010,12 +10104,12 @@
         <f>YEAR(DATE(Calendar2Year,Calendar2MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C38" s="85" t="str">
+      <c r="C38" s="84" t="str">
         <f>TEXT(DATE(Calendar2Year,Calendar2MonthOption+1,1),"mmmm")</f>
         <v>March</v>
       </c>
-      <c r="D38" s="85"/>
-      <c r="E38" s="85"/>
+      <c r="D38" s="84"/>
+      <c r="E38" s="84"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="2"/>
@@ -10076,16 +10170,16 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="71" t="s">
+      <c r="B41" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="73" t="s">
+      <c r="C41" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="74" t="s">
+      <c r="D41" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E41" s="75" t="s">
+      <c r="E41" s="67" t="s">
         <v>20</v>
       </c>
       <c r="F41" s="9" t="s">
@@ -10095,10 +10189,10 @@
       <c r="H41" s="12"/>
     </row>
     <row r="42" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="71"/>
-      <c r="C42" s="73"/>
-      <c r="D42" s="74"/>
-      <c r="E42" s="75"/>
+      <c r="B42" s="76"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="67"/>
       <c r="F42" s="11" t="s">
         <v>6</v>
       </c>
@@ -10106,11 +10200,11 @@
       <c r="H42" s="12"/>
     </row>
     <row r="43" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="72"/>
-      <c r="C43" s="76" t="s">
+      <c r="B43" s="77"/>
+      <c r="C43" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="77"/>
+      <c r="D43" s="79"/>
       <c r="E43" s="9" t="s">
         <v>21</v>
       </c>
@@ -10182,10 +10276,10 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="69" t="s">
+      <c r="B47" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C47" s="70"/>
+      <c r="C47" s="75"/>
       <c r="D47" s="15" t="s">
         <v>10</v>
       </c>
@@ -10223,30 +10317,30 @@
     <row r="49" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
-      <c r="D49" s="78" t="s">
+      <c r="D49" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="E49" s="65" t="s">
+      <c r="E49" s="70" t="s">
         <v>14</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G49" s="65" t="s">
+      <c r="G49" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="H49" s="66"/>
+      <c r="H49" s="72"/>
     </row>
     <row r="50" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
-      <c r="D50" s="79"/>
-      <c r="E50" s="67"/>
+      <c r="D50" s="69"/>
+      <c r="E50" s="71"/>
       <c r="F50" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G50" s="67"/>
-      <c r="H50" s="68"/>
+      <c r="G50" s="71"/>
+      <c r="H50" s="73"/>
     </row>
     <row r="51" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="4">
@@ -10273,43 +10367,43 @@
       </c>
     </row>
     <row r="52" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="71" t="s">
+      <c r="B52" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="C52" s="73" t="s">
+      <c r="C52" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="D52" s="74" t="s">
+      <c r="D52" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E52" s="75" t="s">
+      <c r="E52" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="F52" s="88" t="s">
+      <c r="F52" s="92" t="s">
         <v>22</v>
       </c>
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
     </row>
     <row r="53" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="71"/>
-      <c r="C53" s="73"/>
-      <c r="D53" s="74"/>
-      <c r="E53" s="75"/>
-      <c r="F53" s="88"/>
+      <c r="B53" s="76"/>
+      <c r="C53" s="65"/>
+      <c r="D53" s="66"/>
+      <c r="E53" s="67"/>
+      <c r="F53" s="92"/>
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
     </row>
     <row r="54" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="72"/>
-      <c r="C54" s="76" t="s">
+      <c r="B54" s="77"/>
+      <c r="C54" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="D54" s="77"/>
+      <c r="D54" s="79"/>
       <c r="E54" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F54" s="89"/>
+      <c r="F54" s="93"/>
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
     </row>
@@ -10321,22 +10415,22 @@
       <c r="C55" s="4">
         <v>43921</v>
       </c>
-      <c r="D55" s="86" t="s">
+      <c r="D55" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="E55" s="86"/>
-      <c r="F55" s="86"/>
-      <c r="G55" s="86"/>
-      <c r="H55" s="86"/>
+      <c r="E55" s="91"/>
+      <c r="F55" s="91"/>
+      <c r="G55" s="91"/>
+      <c r="H55" s="91"/>
     </row>
     <row r="56" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
-      <c r="D56" s="84"/>
-      <c r="E56" s="84"/>
-      <c r="F56" s="84"/>
-      <c r="G56" s="84"/>
-      <c r="H56" s="84"/>
+      <c r="D56" s="87"/>
+      <c r="E56" s="87"/>
+      <c r="F56" s="87"/>
+      <c r="G56" s="87"/>
+      <c r="H56" s="87"/>
     </row>
     <row r="57" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A57" s="2"/>
@@ -10344,12 +10438,12 @@
         <f>YEAR(DATE(Calendar3Year,Calendar3MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C57" s="85" t="str">
+      <c r="C57" s="84" t="str">
         <f>TEXT(DATE(Calendar3Year,Calendar3MonthOption+1,1),"mmmm")</f>
         <v>April</v>
       </c>
-      <c r="D57" s="85"/>
-      <c r="E57" s="85"/>
+      <c r="D57" s="84"/>
+      <c r="E57" s="84"/>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c r="H57" s="2"/>
@@ -10492,10 +10586,10 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="69" t="s">
+      <c r="B65" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C65" s="70"/>
+      <c r="C65" s="75"/>
       <c r="D65" s="15" t="s">
         <v>10</v>
       </c>
@@ -10533,30 +10627,30 @@
     <row r="67" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
-      <c r="D67" s="78" t="s">
+      <c r="D67" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="E67" s="65" t="s">
+      <c r="E67" s="70" t="s">
         <v>14</v>
       </c>
       <c r="F67" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G67" s="65" t="s">
+      <c r="G67" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="H67" s="66"/>
+      <c r="H67" s="72"/>
     </row>
     <row r="68" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
-      <c r="D68" s="79"/>
-      <c r="E68" s="67"/>
+      <c r="D68" s="69"/>
+      <c r="E68" s="71"/>
       <c r="F68" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G68" s="67"/>
-      <c r="H68" s="68"/>
+      <c r="G68" s="71"/>
+      <c r="H68" s="73"/>
     </row>
     <row r="69" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="4">
@@ -10583,16 +10677,16 @@
       </c>
     </row>
     <row r="70" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="71" t="s">
+      <c r="B70" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="C70" s="73" t="s">
+      <c r="C70" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="D70" s="74" t="s">
+      <c r="D70" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E70" s="75" t="s">
+      <c r="E70" s="67" t="s">
         <v>20</v>
       </c>
       <c r="F70" s="9" t="s">
@@ -10602,10 +10696,10 @@
       <c r="H70" s="12"/>
     </row>
     <row r="71" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="71"/>
-      <c r="C71" s="73"/>
-      <c r="D71" s="74"/>
-      <c r="E71" s="75"/>
+      <c r="B71" s="76"/>
+      <c r="C71" s="65"/>
+      <c r="D71" s="66"/>
+      <c r="E71" s="67"/>
       <c r="F71" s="11" t="s">
         <v>6</v>
       </c>
@@ -10613,11 +10707,11 @@
       <c r="H71" s="12"/>
     </row>
     <row r="72" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="72"/>
-      <c r="C72" s="76" t="s">
+      <c r="B72" s="77"/>
+      <c r="C72" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="D72" s="77"/>
+      <c r="D72" s="79"/>
       <c r="E72" s="9" t="s">
         <v>21</v>
       </c>
@@ -10635,22 +10729,22 @@
       <c r="C73" s="4">
         <v>43956</v>
       </c>
-      <c r="D73" s="82" t="s">
+      <c r="D73" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="E73" s="83"/>
-      <c r="F73" s="83"/>
-      <c r="G73" s="83"/>
-      <c r="H73" s="83"/>
+      <c r="E73" s="89"/>
+      <c r="F73" s="89"/>
+      <c r="G73" s="89"/>
+      <c r="H73" s="89"/>
     </row>
     <row r="74" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
-      <c r="D74" s="84"/>
-      <c r="E74" s="84"/>
-      <c r="F74" s="84"/>
-      <c r="G74" s="84"/>
-      <c r="H74" s="84"/>
+      <c r="D74" s="87"/>
+      <c r="E74" s="87"/>
+      <c r="F74" s="87"/>
+      <c r="G74" s="87"/>
+      <c r="H74" s="87"/>
     </row>
     <row r="75" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A75" s="2"/>
@@ -10658,12 +10752,12 @@
         <f>YEAR(DATE(Calendar4Year,Calendar4MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C75" s="85" t="str">
+      <c r="C75" s="84" t="str">
         <f>TEXT(DATE(Calendar4Year,Calendar4MonthOption+1,1),"mmmm")</f>
         <v>May</v>
       </c>
-      <c r="D75" s="85"/>
-      <c r="E75" s="85"/>
+      <c r="D75" s="84"/>
+      <c r="E75" s="84"/>
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c r="H75" s="2"/>
@@ -10724,16 +10818,16 @@
       </c>
     </row>
     <row r="78" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="71" t="s">
+      <c r="B78" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="C78" s="73" t="s">
+      <c r="C78" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="D78" s="74" t="s">
+      <c r="D78" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E78" s="75" t="s">
+      <c r="E78" s="67" t="s">
         <v>20</v>
       </c>
       <c r="F78" s="9" t="s">
@@ -10743,10 +10837,10 @@
       <c r="H78" s="12"/>
     </row>
     <row r="79" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="71"/>
-      <c r="C79" s="73"/>
-      <c r="D79" s="74"/>
-      <c r="E79" s="75"/>
+      <c r="B79" s="76"/>
+      <c r="C79" s="65"/>
+      <c r="D79" s="66"/>
+      <c r="E79" s="67"/>
       <c r="F79" s="11" t="s">
         <v>6</v>
       </c>
@@ -10754,11 +10848,11 @@
       <c r="H79" s="12"/>
     </row>
     <row r="80" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="72"/>
-      <c r="C80" s="76" t="s">
+      <c r="B80" s="77"/>
+      <c r="C80" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="D80" s="77"/>
+      <c r="D80" s="79"/>
       <c r="E80" s="9" t="s">
         <v>21</v>
       </c>
@@ -10830,10 +10924,10 @@
       </c>
     </row>
     <row r="84" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="69" t="s">
+      <c r="B84" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C84" s="70"/>
+      <c r="C84" s="75"/>
       <c r="D84" s="15" t="s">
         <v>10</v>
       </c>
@@ -10871,30 +10965,30 @@
     <row r="86" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
-      <c r="D86" s="78" t="s">
+      <c r="D86" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="E86" s="65" t="s">
+      <c r="E86" s="70" t="s">
         <v>14</v>
       </c>
       <c r="F86" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G86" s="65" t="s">
+      <c r="G86" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="H86" s="66"/>
+      <c r="H86" s="72"/>
     </row>
     <row r="87" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
-      <c r="D87" s="79"/>
-      <c r="E87" s="67"/>
+      <c r="D87" s="69"/>
+      <c r="E87" s="71"/>
       <c r="F87" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G87" s="67"/>
-      <c r="H87" s="68"/>
+      <c r="G87" s="71"/>
+      <c r="H87" s="73"/>
     </row>
     <row r="88" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="4">
@@ -10924,13 +11018,13 @@
       <c r="B89" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C89" s="73" t="s">
+      <c r="C89" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="D89" s="74" t="s">
+      <c r="D89" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E89" s="75" t="s">
+      <c r="E89" s="67" t="s">
         <v>20</v>
       </c>
       <c r="F89" s="9" t="s">
@@ -10941,9 +11035,9 @@
     </row>
     <row r="90" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B90" s="10"/>
-      <c r="C90" s="73"/>
-      <c r="D90" s="74"/>
-      <c r="E90" s="75"/>
+      <c r="C90" s="65"/>
+      <c r="D90" s="66"/>
+      <c r="E90" s="67"/>
       <c r="F90" s="11" t="s">
         <v>6</v>
       </c>
@@ -10951,11 +11045,11 @@
       <c r="H90" s="12"/>
     </row>
     <row r="91" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="90" t="s">
+      <c r="B91" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="C91" s="90"/>
-      <c r="D91" s="91"/>
+      <c r="C91" s="85"/>
+      <c r="D91" s="86"/>
       <c r="E91" s="9" t="s">
         <v>21</v>
       </c>
@@ -10973,22 +11067,22 @@
       <c r="C92" s="4">
         <v>43984</v>
       </c>
-      <c r="D92" s="82" t="s">
+      <c r="D92" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="E92" s="83"/>
-      <c r="F92" s="83"/>
-      <c r="G92" s="83"/>
-      <c r="H92" s="83"/>
+      <c r="E92" s="89"/>
+      <c r="F92" s="89"/>
+      <c r="G92" s="89"/>
+      <c r="H92" s="89"/>
     </row>
     <row r="93" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
-      <c r="D93" s="84"/>
-      <c r="E93" s="84"/>
-      <c r="F93" s="84"/>
-      <c r="G93" s="84"/>
-      <c r="H93" s="84"/>
+      <c r="D93" s="87"/>
+      <c r="E93" s="87"/>
+      <c r="F93" s="87"/>
+      <c r="G93" s="87"/>
+      <c r="H93" s="87"/>
     </row>
     <row r="94" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A94" s="2"/>
@@ -10996,12 +11090,12 @@
         <f>YEAR(DATE(Calendar5Year,Calendar5MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C94" s="85" t="str">
+      <c r="C94" s="84" t="str">
         <f>TEXT(DATE(Calendar5Year,Calendar5MonthOption+1,1),"mmmm")</f>
         <v>June</v>
       </c>
-      <c r="D94" s="85"/>
-      <c r="E94" s="85"/>
+      <c r="D94" s="84"/>
+      <c r="E94" s="84"/>
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c r="H94" s="2"/>
@@ -11099,10 +11193,10 @@
       </c>
     </row>
     <row r="99" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="69" t="s">
+      <c r="B99" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C99" s="70"/>
+      <c r="C99" s="75"/>
       <c r="D99" s="15" t="s">
         <v>10</v>
       </c>
@@ -11140,30 +11234,30 @@
     <row r="101" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
-      <c r="D101" s="78" t="s">
+      <c r="D101" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="E101" s="65" t="s">
+      <c r="E101" s="70" t="s">
         <v>14</v>
       </c>
       <c r="F101" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G101" s="65" t="s">
+      <c r="G101" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="H101" s="66"/>
+      <c r="H101" s="72"/>
     </row>
     <row r="102" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
-      <c r="D102" s="79"/>
-      <c r="E102" s="67"/>
+      <c r="D102" s="69"/>
+      <c r="E102" s="71"/>
       <c r="F102" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G102" s="67"/>
-      <c r="H102" s="68"/>
+      <c r="G102" s="71"/>
+      <c r="H102" s="73"/>
     </row>
     <row r="103" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B103" s="4">
@@ -11190,43 +11284,43 @@
       </c>
     </row>
     <row r="104" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="71" t="s">
+      <c r="B104" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="C104" s="73" t="s">
+      <c r="C104" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="D104" s="74" t="s">
+      <c r="D104" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E104" s="75" t="s">
+      <c r="E104" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="F104" s="92" t="s">
+      <c r="F104" s="82" t="s">
         <v>22</v>
       </c>
       <c r="G104" s="12"/>
       <c r="H104" s="12"/>
     </row>
     <row r="105" spans="1:8" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="71"/>
-      <c r="C105" s="73"/>
-      <c r="D105" s="74"/>
-      <c r="E105" s="75"/>
-      <c r="F105" s="92"/>
+      <c r="B105" s="76"/>
+      <c r="C105" s="65"/>
+      <c r="D105" s="66"/>
+      <c r="E105" s="67"/>
+      <c r="F105" s="82"/>
       <c r="G105" s="12"/>
       <c r="H105" s="12"/>
     </row>
     <row r="106" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="72"/>
-      <c r="C106" s="76" t="s">
+      <c r="B106" s="77"/>
+      <c r="C106" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="D106" s="77"/>
+      <c r="D106" s="79"/>
       <c r="E106" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F106" s="93"/>
+      <c r="F106" s="83"/>
       <c r="G106" s="13"/>
       <c r="H106" s="13"/>
     </row>
@@ -11284,22 +11378,22 @@
       <c r="C110" s="4">
         <v>44019</v>
       </c>
-      <c r="D110" s="82" t="s">
+      <c r="D110" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="E110" s="83"/>
-      <c r="F110" s="83"/>
-      <c r="G110" s="83"/>
-      <c r="H110" s="83"/>
+      <c r="E110" s="89"/>
+      <c r="F110" s="89"/>
+      <c r="G110" s="89"/>
+      <c r="H110" s="89"/>
     </row>
     <row r="111" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
-      <c r="D111" s="84"/>
-      <c r="E111" s="84"/>
-      <c r="F111" s="84"/>
-      <c r="G111" s="84"/>
-      <c r="H111" s="84"/>
+      <c r="D111" s="87"/>
+      <c r="E111" s="87"/>
+      <c r="F111" s="87"/>
+      <c r="G111" s="87"/>
+      <c r="H111" s="87"/>
     </row>
     <row r="112" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A112" s="2"/>
@@ -11307,12 +11401,12 @@
         <f>YEAR(DATE(Calendar6Year,Calendar6MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C112" s="85" t="str">
+      <c r="C112" s="84" t="str">
         <f>TEXT(DATE(Calendar6Year,Calendar6MonthOption+1,1),"mmmm")</f>
         <v>July</v>
       </c>
-      <c r="D112" s="85"/>
-      <c r="E112" s="85"/>
+      <c r="D112" s="84"/>
+      <c r="E112" s="84"/>
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c r="H112" s="2"/>
@@ -11460,10 +11554,10 @@
       </c>
     </row>
     <row r="120" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="69" t="s">
+      <c r="B120" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C120" s="70"/>
+      <c r="C120" s="75"/>
       <c r="D120" s="15" t="s">
         <v>10</v>
       </c>
@@ -11501,30 +11595,30 @@
     <row r="122" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
-      <c r="D122" s="78" t="s">
+      <c r="D122" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="E122" s="65" t="s">
+      <c r="E122" s="70" t="s">
         <v>14</v>
       </c>
       <c r="F122" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G122" s="65" t="s">
+      <c r="G122" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="H122" s="66"/>
+      <c r="H122" s="72"/>
     </row>
     <row r="123" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
-      <c r="D123" s="79"/>
-      <c r="E123" s="67"/>
+      <c r="D123" s="69"/>
+      <c r="E123" s="71"/>
       <c r="F123" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G123" s="67"/>
-      <c r="H123" s="68"/>
+      <c r="G123" s="71"/>
+      <c r="H123" s="73"/>
     </row>
     <row r="124" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B124" s="4">
@@ -11551,16 +11645,16 @@
       </c>
     </row>
     <row r="125" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="71" t="s">
+      <c r="B125" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="C125" s="73" t="s">
+      <c r="C125" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="D125" s="74" t="s">
+      <c r="D125" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E125" s="75" t="s">
+      <c r="E125" s="67" t="s">
         <v>20</v>
       </c>
       <c r="F125" s="9" t="s">
@@ -11570,10 +11664,10 @@
       <c r="H125" s="12"/>
     </row>
     <row r="126" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="71"/>
-      <c r="C126" s="73"/>
-      <c r="D126" s="74"/>
-      <c r="E126" s="75"/>
+      <c r="B126" s="76"/>
+      <c r="C126" s="65"/>
+      <c r="D126" s="66"/>
+      <c r="E126" s="67"/>
       <c r="F126" s="11" t="s">
         <v>6</v>
       </c>
@@ -11581,11 +11675,11 @@
       <c r="H126" s="12"/>
     </row>
     <row r="127" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="72"/>
-      <c r="C127" s="76" t="s">
+      <c r="B127" s="77"/>
+      <c r="C127" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="D127" s="77"/>
+      <c r="D127" s="79"/>
       <c r="E127" s="9" t="s">
         <v>21</v>
       </c>
@@ -11603,22 +11697,22 @@
       <c r="C128" s="4">
         <v>44047</v>
       </c>
-      <c r="D128" s="82" t="s">
+      <c r="D128" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="E128" s="83"/>
-      <c r="F128" s="83"/>
-      <c r="G128" s="83"/>
-      <c r="H128" s="83"/>
+      <c r="E128" s="89"/>
+      <c r="F128" s="89"/>
+      <c r="G128" s="89"/>
+      <c r="H128" s="89"/>
     </row>
     <row r="129" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
-      <c r="D129" s="84"/>
-      <c r="E129" s="84"/>
-      <c r="F129" s="84"/>
-      <c r="G129" s="84"/>
-      <c r="H129" s="84"/>
+      <c r="D129" s="87"/>
+      <c r="E129" s="87"/>
+      <c r="F129" s="87"/>
+      <c r="G129" s="87"/>
+      <c r="H129" s="87"/>
     </row>
     <row r="130" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A130" s="2"/>
@@ -11626,12 +11720,12 @@
         <f>YEAR(DATE(Calendar7Year,Calendar7MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C130" s="85" t="str">
+      <c r="C130" s="84" t="str">
         <f>TEXT(DATE(Calendar7Year,Calendar7MonthOption+1,1),"mmmm")</f>
         <v>August</v>
       </c>
-      <c r="D130" s="85"/>
-      <c r="E130" s="85"/>
+      <c r="D130" s="84"/>
+      <c r="E130" s="84"/>
       <c r="F130" s="7"/>
       <c r="G130" s="7"/>
       <c r="H130" s="2"/>
@@ -11692,16 +11786,16 @@
       </c>
     </row>
     <row r="133" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="71" t="s">
+      <c r="B133" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="C133" s="73" t="s">
+      <c r="C133" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="D133" s="74" t="s">
+      <c r="D133" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E133" s="75" t="s">
+      <c r="E133" s="67" t="s">
         <v>20</v>
       </c>
       <c r="F133" s="9" t="s">
@@ -11711,10 +11805,10 @@
       <c r="H133" s="12"/>
     </row>
     <row r="134" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="71"/>
-      <c r="C134" s="73"/>
-      <c r="D134" s="74"/>
-      <c r="E134" s="75"/>
+      <c r="B134" s="76"/>
+      <c r="C134" s="65"/>
+      <c r="D134" s="66"/>
+      <c r="E134" s="67"/>
       <c r="F134" s="11" t="s">
         <v>6</v>
       </c>
@@ -11722,11 +11816,11 @@
       <c r="H134" s="12"/>
     </row>
     <row r="135" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B135" s="72"/>
-      <c r="C135" s="76" t="s">
+      <c r="B135" s="77"/>
+      <c r="C135" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="D135" s="77"/>
+      <c r="D135" s="79"/>
       <c r="E135" s="9" t="s">
         <v>21</v>
       </c>
@@ -11798,10 +11892,10 @@
       </c>
     </row>
     <row r="139" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="69" t="s">
+      <c r="B139" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C139" s="70"/>
+      <c r="C139" s="75"/>
       <c r="D139" s="15" t="s">
         <v>10</v>
       </c>
@@ -11839,30 +11933,30 @@
     <row r="141" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
-      <c r="D141" s="78" t="s">
+      <c r="D141" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="E141" s="65" t="s">
+      <c r="E141" s="70" t="s">
         <v>14</v>
       </c>
       <c r="F141" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G141" s="65" t="s">
+      <c r="G141" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="H141" s="66"/>
+      <c r="H141" s="72"/>
     </row>
     <row r="142" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
-      <c r="D142" s="79"/>
-      <c r="E142" s="67"/>
+      <c r="D142" s="69"/>
+      <c r="E142" s="71"/>
       <c r="F142" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G142" s="67"/>
-      <c r="H142" s="68"/>
+      <c r="G142" s="71"/>
+      <c r="H142" s="73"/>
     </row>
     <row r="143" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B143" s="4">
@@ -11889,16 +11983,16 @@
       </c>
     </row>
     <row r="144" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="71" t="s">
+      <c r="B144" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="C144" s="73" t="s">
+      <c r="C144" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="D144" s="74" t="s">
+      <c r="D144" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E144" s="75" t="s">
+      <c r="E144" s="67" t="s">
         <v>20</v>
       </c>
       <c r="F144" s="9" t="s">
@@ -11908,10 +12002,10 @@
       <c r="H144" s="12"/>
     </row>
     <row r="145" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B145" s="71"/>
-      <c r="C145" s="73"/>
-      <c r="D145" s="74"/>
-      <c r="E145" s="75"/>
+      <c r="B145" s="76"/>
+      <c r="C145" s="65"/>
+      <c r="D145" s="66"/>
+      <c r="E145" s="67"/>
       <c r="F145" s="11" t="s">
         <v>6</v>
       </c>
@@ -11919,11 +12013,11 @@
       <c r="H145" s="12"/>
     </row>
     <row r="146" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="72"/>
-      <c r="C146" s="76" t="s">
+      <c r="B146" s="77"/>
+      <c r="C146" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="D146" s="77"/>
+      <c r="D146" s="79"/>
       <c r="E146" s="9" t="s">
         <v>21</v>
       </c>
@@ -11941,22 +12035,22 @@
       <c r="C147" s="4">
         <v>44075</v>
       </c>
-      <c r="D147" s="82" t="s">
+      <c r="D147" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="E147" s="83"/>
-      <c r="F147" s="83"/>
-      <c r="G147" s="83"/>
-      <c r="H147" s="83"/>
+      <c r="E147" s="89"/>
+      <c r="F147" s="89"/>
+      <c r="G147" s="89"/>
+      <c r="H147" s="89"/>
     </row>
     <row r="148" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
-      <c r="D148" s="84"/>
-      <c r="E148" s="84"/>
-      <c r="F148" s="84"/>
-      <c r="G148" s="84"/>
-      <c r="H148" s="84"/>
+      <c r="D148" s="87"/>
+      <c r="E148" s="87"/>
+      <c r="F148" s="87"/>
+      <c r="G148" s="87"/>
+      <c r="H148" s="87"/>
     </row>
     <row r="149" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A149" s="2"/>
@@ -11964,12 +12058,12 @@
         <f>YEAR(DATE(Calendar8Year,Calendar8MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C149" s="85" t="str">
+      <c r="C149" s="84" t="str">
         <f>TEXT(DATE(Calendar8Year,Calendar8MonthOption+1,1),"mmmm")</f>
         <v>September</v>
       </c>
-      <c r="D149" s="85"/>
-      <c r="E149" s="85"/>
+      <c r="D149" s="84"/>
+      <c r="E149" s="84"/>
       <c r="F149" s="7"/>
       <c r="G149" s="7"/>
       <c r="H149" s="2"/>
@@ -12070,10 +12164,10 @@
       <c r="B154" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C154" s="69" t="s">
+      <c r="C154" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="D154" s="70"/>
+      <c r="D154" s="75"/>
       <c r="E154" s="15" t="s">
         <v>10</v>
       </c>
@@ -12110,30 +12204,30 @@
     <row r="156" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
-      <c r="D156" s="78" t="s">
+      <c r="D156" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="E156" s="65" t="s">
+      <c r="E156" s="70" t="s">
         <v>14</v>
       </c>
       <c r="F156" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G156" s="65" t="s">
+      <c r="G156" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="H156" s="66"/>
+      <c r="H156" s="72"/>
     </row>
     <row r="157" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
-      <c r="D157" s="79"/>
-      <c r="E157" s="67"/>
+      <c r="D157" s="69"/>
+      <c r="E157" s="71"/>
       <c r="F157" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G157" s="67"/>
-      <c r="H157" s="68"/>
+      <c r="G157" s="71"/>
+      <c r="H157" s="73"/>
     </row>
     <row r="158" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B158" s="4">
@@ -12160,16 +12254,16 @@
       </c>
     </row>
     <row r="159" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B159" s="71" t="s">
+      <c r="B159" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="C159" s="73" t="s">
+      <c r="C159" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="D159" s="74" t="s">
+      <c r="D159" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E159" s="75" t="s">
+      <c r="E159" s="67" t="s">
         <v>20</v>
       </c>
       <c r="F159" s="9" t="s">
@@ -12179,10 +12273,10 @@
       <c r="H159" s="12"/>
     </row>
     <row r="160" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B160" s="71"/>
-      <c r="C160" s="73"/>
-      <c r="D160" s="74"/>
-      <c r="E160" s="75"/>
+      <c r="B160" s="76"/>
+      <c r="C160" s="65"/>
+      <c r="D160" s="66"/>
+      <c r="E160" s="67"/>
       <c r="F160" s="11" t="s">
         <v>6</v>
       </c>
@@ -12190,11 +12284,11 @@
       <c r="H160" s="12"/>
     </row>
     <row r="161" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="72"/>
-      <c r="C161" s="76" t="s">
+      <c r="B161" s="77"/>
+      <c r="C161" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="D161" s="77"/>
+      <c r="D161" s="79"/>
       <c r="E161" s="9" t="s">
         <v>21</v>
       </c>
@@ -12249,22 +12343,22 @@
       <c r="C164" s="4">
         <v>44110</v>
       </c>
-      <c r="D164" s="82" t="s">
+      <c r="D164" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="E164" s="83"/>
-      <c r="F164" s="83"/>
-      <c r="G164" s="83"/>
-      <c r="H164" s="83"/>
+      <c r="E164" s="89"/>
+      <c r="F164" s="89"/>
+      <c r="G164" s="89"/>
+      <c r="H164" s="89"/>
     </row>
     <row r="165" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
-      <c r="D165" s="84"/>
-      <c r="E165" s="84"/>
-      <c r="F165" s="84"/>
-      <c r="G165" s="84"/>
-      <c r="H165" s="84"/>
+      <c r="D165" s="87"/>
+      <c r="E165" s="87"/>
+      <c r="F165" s="87"/>
+      <c r="G165" s="87"/>
+      <c r="H165" s="87"/>
     </row>
     <row r="166" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A166" s="2"/>
@@ -12272,12 +12366,12 @@
         <f>YEAR(DATE(Calendar9Year,Calendar9MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C166" s="85" t="str">
+      <c r="C166" s="84" t="str">
         <f>TEXT(DATE(Calendar9Year,Calendar9MonthOption+1,1),"mmmm")</f>
         <v>October</v>
       </c>
-      <c r="D166" s="85"/>
-      <c r="E166" s="85"/>
+      <c r="D166" s="84"/>
+      <c r="E166" s="84"/>
       <c r="F166" s="7"/>
       <c r="G166" s="7"/>
       <c r="H166" s="2"/>
@@ -12375,10 +12469,10 @@
       </c>
     </row>
     <row r="171" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B171" s="69" t="s">
+      <c r="B171" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C171" s="70"/>
+      <c r="C171" s="75"/>
       <c r="D171" s="15" t="s">
         <v>10</v>
       </c>
@@ -12414,34 +12508,34 @@
       </c>
     </row>
     <row r="173" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="94" t="s">
+      <c r="B173" s="80" t="s">
         <v>36</v>
       </c>
       <c r="C173" s="4"/>
-      <c r="D173" s="78" t="s">
+      <c r="D173" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="E173" s="65" t="s">
+      <c r="E173" s="70" t="s">
         <v>14</v>
       </c>
       <c r="F173" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G173" s="65" t="s">
+      <c r="G173" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="H173" s="66"/>
+      <c r="H173" s="72"/>
     </row>
     <row r="174" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="95"/>
+      <c r="B174" s="81"/>
       <c r="C174" s="8"/>
-      <c r="D174" s="79"/>
-      <c r="E174" s="67"/>
+      <c r="D174" s="69"/>
+      <c r="E174" s="71"/>
       <c r="F174" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G174" s="67"/>
-      <c r="H174" s="68"/>
+      <c r="G174" s="71"/>
+      <c r="H174" s="73"/>
     </row>
     <row r="175" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B175" s="4">
@@ -12468,16 +12562,16 @@
       </c>
     </row>
     <row r="176" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="71" t="s">
+      <c r="B176" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="C176" s="73" t="s">
+      <c r="C176" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="D176" s="74" t="s">
+      <c r="D176" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E176" s="75" t="s">
+      <c r="E176" s="67" t="s">
         <v>20</v>
       </c>
       <c r="F176" s="9" t="s">
@@ -12487,10 +12581,10 @@
       <c r="H176" s="12"/>
     </row>
     <row r="177" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B177" s="71"/>
-      <c r="C177" s="73"/>
-      <c r="D177" s="74"/>
-      <c r="E177" s="75"/>
+      <c r="B177" s="76"/>
+      <c r="C177" s="65"/>
+      <c r="D177" s="66"/>
+      <c r="E177" s="67"/>
       <c r="F177" s="11" t="s">
         <v>6</v>
       </c>
@@ -12498,11 +12592,11 @@
       <c r="H177" s="12"/>
     </row>
     <row r="178" spans="2:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="72"/>
-      <c r="C178" s="76" t="s">
+      <c r="B178" s="77"/>
+      <c r="C178" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="D178" s="77"/>
+      <c r="D178" s="79"/>
       <c r="E178" s="9" t="s">
         <v>21</v>
       </c>
@@ -12557,34 +12651,34 @@
       <c r="C181" s="4">
         <v>44138</v>
       </c>
-      <c r="D181" s="82" t="s">
+      <c r="D181" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="E181" s="83"/>
-      <c r="F181" s="83"/>
-      <c r="G181" s="83"/>
-      <c r="H181" s="83"/>
+      <c r="E181" s="89"/>
+      <c r="F181" s="89"/>
+      <c r="G181" s="89"/>
+      <c r="H181" s="89"/>
     </row>
     <row r="182" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
-      <c r="D182" s="84"/>
-      <c r="E182" s="84"/>
-      <c r="F182" s="84"/>
-      <c r="G182" s="84"/>
-      <c r="H182" s="84"/>
+      <c r="D182" s="87"/>
+      <c r="E182" s="87"/>
+      <c r="F182" s="87"/>
+      <c r="G182" s="87"/>
+      <c r="H182" s="87"/>
     </row>
     <row r="183" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="B183" s="1">
         <f>YEAR(DATE(Calendar10Year,Calendar10MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C183" s="85" t="str">
+      <c r="C183" s="84" t="str">
         <f>TEXT(DATE(Calendar10Year,Calendar10MonthOption+1,1),"mmmm")</f>
         <v>November</v>
       </c>
-      <c r="D183" s="85"/>
-      <c r="E183" s="85"/>
+      <c r="D183" s="84"/>
+      <c r="E183" s="84"/>
       <c r="F183" s="7"/>
       <c r="G183" s="7"/>
       <c r="H183" s="2"/>
@@ -12681,10 +12775,10 @@
       </c>
     </row>
     <row r="188" spans="2:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B188" s="69" t="s">
+      <c r="B188" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C188" s="70"/>
+      <c r="C188" s="75"/>
       <c r="D188" s="15" t="s">
         <v>10</v>
       </c>
@@ -12721,33 +12815,33 @@
     </row>
     <row r="190" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B190" s="4"/>
-      <c r="C190" s="78" t="s">
+      <c r="C190" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="D190" s="80" t="s">
+      <c r="D190" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="E190" s="65" t="s">
+      <c r="E190" s="70" t="s">
         <v>14</v>
       </c>
       <c r="F190" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G190" s="65" t="s">
+      <c r="G190" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="H190" s="66"/>
+      <c r="H190" s="72"/>
     </row>
     <row r="191" spans="2:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B191" s="8"/>
-      <c r="C191" s="79"/>
-      <c r="D191" s="81"/>
-      <c r="E191" s="67"/>
+      <c r="C191" s="69"/>
+      <c r="D191" s="95"/>
+      <c r="E191" s="71"/>
       <c r="F191" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G191" s="67"/>
-      <c r="H191" s="68"/>
+      <c r="G191" s="71"/>
+      <c r="H191" s="73"/>
     </row>
     <row r="192" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B192" s="4">
@@ -12774,16 +12868,16 @@
       </c>
     </row>
     <row r="193" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B193" s="71" t="s">
+      <c r="B193" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="C193" s="73" t="s">
+      <c r="C193" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="D193" s="74" t="s">
+      <c r="D193" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E193" s="75" t="s">
+      <c r="E193" s="67" t="s">
         <v>20</v>
       </c>
       <c r="F193" s="9" t="s">
@@ -12793,10 +12887,10 @@
       <c r="H193" s="12"/>
     </row>
     <row r="194" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B194" s="71"/>
-      <c r="C194" s="73"/>
-      <c r="D194" s="74"/>
-      <c r="E194" s="75"/>
+      <c r="B194" s="76"/>
+      <c r="C194" s="65"/>
+      <c r="D194" s="66"/>
+      <c r="E194" s="67"/>
       <c r="F194" s="11" t="s">
         <v>6</v>
       </c>
@@ -12804,11 +12898,11 @@
       <c r="H194" s="12"/>
     </row>
     <row r="195" spans="2:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B195" s="72"/>
-      <c r="C195" s="76" t="s">
+      <c r="B195" s="77"/>
+      <c r="C195" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="D195" s="77"/>
+      <c r="D195" s="79"/>
       <c r="E195" s="9" t="s">
         <v>21</v>
       </c>
@@ -12863,36 +12957,36 @@
       <c r="C198" s="4">
         <v>44166</v>
       </c>
-      <c r="D198" s="82" t="s">
+      <c r="D198" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="E198" s="83"/>
-      <c r="F198" s="83"/>
-      <c r="G198" s="83"/>
-      <c r="H198" s="83"/>
+      <c r="E198" s="89"/>
+      <c r="F198" s="89"/>
+      <c r="G198" s="89"/>
+      <c r="H198" s="89"/>
     </row>
     <row r="199" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B199" s="69" t="s">
+      <c r="B199" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C199" s="70"/>
-      <c r="D199" s="84"/>
-      <c r="E199" s="84"/>
-      <c r="F199" s="84"/>
-      <c r="G199" s="84"/>
-      <c r="H199" s="84"/>
+      <c r="C199" s="75"/>
+      <c r="D199" s="87"/>
+      <c r="E199" s="87"/>
+      <c r="F199" s="87"/>
+      <c r="G199" s="87"/>
+      <c r="H199" s="87"/>
     </row>
     <row r="200" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="B200" s="1">
         <f>YEAR(DATE(Calendar11Year,Calendar11MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C200" s="85" t="str">
+      <c r="C200" s="84" t="str">
         <f>TEXT(DATE(Calendar11Year,Calendar11MonthOption+1,1),"mmmm")</f>
         <v>December</v>
       </c>
-      <c r="D200" s="85"/>
-      <c r="E200" s="85"/>
+      <c r="D200" s="84"/>
+      <c r="E200" s="84"/>
       <c r="F200" s="7"/>
       <c r="G200" s="7"/>
       <c r="H200" s="2"/>
@@ -12952,10 +13046,10 @@
       </c>
     </row>
     <row r="203" spans="2:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B203" s="69" t="s">
+      <c r="B203" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C203" s="70"/>
+      <c r="C203" s="75"/>
       <c r="D203" s="15" t="s">
         <v>10</v>
       </c>
@@ -12993,30 +13087,30 @@
     <row r="205" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
-      <c r="D205" s="78" t="s">
+      <c r="D205" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="E205" s="65" t="s">
+      <c r="E205" s="70" t="s">
         <v>14</v>
       </c>
       <c r="F205" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G205" s="65" t="s">
+      <c r="G205" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="H205" s="66"/>
+      <c r="H205" s="72"/>
     </row>
     <row r="206" spans="2:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B206" s="8"/>
       <c r="C206" s="8"/>
-      <c r="D206" s="79"/>
-      <c r="E206" s="67"/>
+      <c r="D206" s="69"/>
+      <c r="E206" s="71"/>
       <c r="F206" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G206" s="67"/>
-      <c r="H206" s="68"/>
+      <c r="G206" s="71"/>
+      <c r="H206" s="73"/>
     </row>
     <row r="207" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B207" s="4">
@@ -13043,16 +13137,16 @@
       </c>
     </row>
     <row r="208" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B208" s="71" t="s">
+      <c r="B208" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="C208" s="73" t="s">
+      <c r="C208" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="D208" s="74" t="s">
+      <c r="D208" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E208" s="75" t="s">
+      <c r="E208" s="67" t="s">
         <v>20</v>
       </c>
       <c r="F208" s="9" t="s">
@@ -13062,10 +13156,10 @@
       <c r="H208" s="12"/>
     </row>
     <row r="209" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B209" s="71"/>
-      <c r="C209" s="73"/>
-      <c r="D209" s="74"/>
-      <c r="E209" s="75"/>
+      <c r="B209" s="76"/>
+      <c r="C209" s="65"/>
+      <c r="D209" s="66"/>
+      <c r="E209" s="67"/>
       <c r="F209" s="11" t="s">
         <v>6</v>
       </c>
@@ -13073,11 +13167,11 @@
       <c r="H209" s="12"/>
     </row>
     <row r="210" spans="2:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B210" s="72"/>
-      <c r="C210" s="76" t="s">
+      <c r="B210" s="77"/>
+      <c r="C210" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="D210" s="77"/>
+      <c r="D210" s="79"/>
       <c r="E210" s="9" t="s">
         <v>21</v>
       </c>
@@ -13163,126 +13257,68 @@
       <c r="C215" s="4">
         <v>44201</v>
       </c>
-      <c r="D215" s="82" t="s">
+      <c r="D215" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="E215" s="83"/>
-      <c r="F215" s="83"/>
-      <c r="G215" s="83"/>
-      <c r="H215" s="83"/>
+      <c r="E215" s="89"/>
+      <c r="F215" s="89"/>
+      <c r="G215" s="89"/>
+      <c r="H215" s="89"/>
     </row>
     <row r="216" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B216" s="8"/>
       <c r="C216" s="8"/>
-      <c r="D216" s="84"/>
-      <c r="E216" s="84"/>
-      <c r="F216" s="84"/>
-      <c r="G216" s="84"/>
-      <c r="H216" s="84"/>
+      <c r="D216" s="87"/>
+      <c r="E216" s="87"/>
+      <c r="F216" s="87"/>
+      <c r="G216" s="87"/>
+      <c r="H216" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="168">
-    <mergeCell ref="C144:C145"/>
-    <mergeCell ref="D144:D145"/>
-    <mergeCell ref="E144:E145"/>
-    <mergeCell ref="D156:D157"/>
-    <mergeCell ref="E156:E157"/>
-    <mergeCell ref="G156:H157"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="B176:B178"/>
-    <mergeCell ref="C176:C177"/>
-    <mergeCell ref="D176:D177"/>
-    <mergeCell ref="E176:E177"/>
-    <mergeCell ref="C178:D178"/>
-    <mergeCell ref="D173:D174"/>
-    <mergeCell ref="E173:E174"/>
-    <mergeCell ref="G173:H174"/>
-    <mergeCell ref="B173:B174"/>
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="B159:B161"/>
-    <mergeCell ref="C159:C160"/>
-    <mergeCell ref="D159:D160"/>
-    <mergeCell ref="E159:E160"/>
-    <mergeCell ref="C161:D161"/>
-    <mergeCell ref="C146:D146"/>
-    <mergeCell ref="G101:H102"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="E125:E126"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="D122:D123"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="G122:H123"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="F104:F106"/>
-    <mergeCell ref="G141:H142"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="B133:B135"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="E133:E134"/>
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="D141:D142"/>
-    <mergeCell ref="C112:E112"/>
-    <mergeCell ref="C130:E130"/>
-    <mergeCell ref="E141:E142"/>
-    <mergeCell ref="B144:B146"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="C94:E94"/>
-    <mergeCell ref="D93:H93"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D110:H110"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="G11:H12"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="G30:H31"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="D198:H198"/>
+    <mergeCell ref="B193:B195"/>
+    <mergeCell ref="C193:C194"/>
+    <mergeCell ref="D193:D194"/>
+    <mergeCell ref="E193:E194"/>
+    <mergeCell ref="C195:D195"/>
+    <mergeCell ref="C190:C191"/>
+    <mergeCell ref="E190:E191"/>
+    <mergeCell ref="G190:H191"/>
+    <mergeCell ref="D190:D191"/>
+    <mergeCell ref="C208:C209"/>
+    <mergeCell ref="D208:D209"/>
+    <mergeCell ref="E208:E209"/>
+    <mergeCell ref="C210:D210"/>
+    <mergeCell ref="D205:D206"/>
+    <mergeCell ref="E205:E206"/>
+    <mergeCell ref="G205:H206"/>
+    <mergeCell ref="B203:C203"/>
+    <mergeCell ref="B199:C199"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="G86:H87"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="G67:H68"/>
+    <mergeCell ref="D216:H216"/>
+    <mergeCell ref="D181:H181"/>
+    <mergeCell ref="D182:H182"/>
+    <mergeCell ref="D128:H128"/>
+    <mergeCell ref="D111:H111"/>
+    <mergeCell ref="D165:H165"/>
+    <mergeCell ref="D147:H147"/>
+    <mergeCell ref="D164:H164"/>
+    <mergeCell ref="D129:H129"/>
+    <mergeCell ref="D148:H148"/>
+    <mergeCell ref="D199:H199"/>
+    <mergeCell ref="D215:H215"/>
+    <mergeCell ref="C149:E149"/>
+    <mergeCell ref="C166:E166"/>
+    <mergeCell ref="C183:E183"/>
+    <mergeCell ref="C200:E200"/>
+    <mergeCell ref="B188:C188"/>
+    <mergeCell ref="B208:B210"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="D17:H17"/>
     <mergeCell ref="D18:H18"/>
@@ -13307,1673 +13343,1731 @@
     <mergeCell ref="E52:E53"/>
     <mergeCell ref="F52:F54"/>
     <mergeCell ref="C54:D54"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="G86:H87"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="G67:H68"/>
-    <mergeCell ref="D216:H216"/>
-    <mergeCell ref="D181:H181"/>
-    <mergeCell ref="D182:H182"/>
-    <mergeCell ref="D128:H128"/>
-    <mergeCell ref="D111:H111"/>
-    <mergeCell ref="D165:H165"/>
-    <mergeCell ref="D147:H147"/>
-    <mergeCell ref="D164:H164"/>
-    <mergeCell ref="D129:H129"/>
-    <mergeCell ref="D148:H148"/>
-    <mergeCell ref="D199:H199"/>
-    <mergeCell ref="D215:H215"/>
-    <mergeCell ref="C149:E149"/>
-    <mergeCell ref="C166:E166"/>
-    <mergeCell ref="C183:E183"/>
-    <mergeCell ref="C200:E200"/>
-    <mergeCell ref="B188:C188"/>
-    <mergeCell ref="B208:B210"/>
-    <mergeCell ref="C208:C209"/>
-    <mergeCell ref="D208:D209"/>
-    <mergeCell ref="E208:E209"/>
-    <mergeCell ref="C210:D210"/>
-    <mergeCell ref="D205:D206"/>
-    <mergeCell ref="E205:E206"/>
-    <mergeCell ref="G205:H206"/>
-    <mergeCell ref="B203:C203"/>
-    <mergeCell ref="B199:C199"/>
-    <mergeCell ref="B193:B195"/>
-    <mergeCell ref="C193:C194"/>
-    <mergeCell ref="D193:D194"/>
-    <mergeCell ref="E193:E194"/>
-    <mergeCell ref="C195:D195"/>
-    <mergeCell ref="C190:C191"/>
-    <mergeCell ref="E190:E191"/>
-    <mergeCell ref="G190:H191"/>
-    <mergeCell ref="D190:D191"/>
-    <mergeCell ref="D198:H198"/>
+    <mergeCell ref="G11:H12"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="G30:H31"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="D93:H93"/>
+    <mergeCell ref="G141:H142"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="B133:B135"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="E133:E134"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="D141:D142"/>
+    <mergeCell ref="C112:E112"/>
+    <mergeCell ref="C130:E130"/>
+    <mergeCell ref="E141:E142"/>
+    <mergeCell ref="G101:H102"/>
+    <mergeCell ref="B125:B127"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="E125:E126"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="D122:D123"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="G122:H123"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="F104:F106"/>
+    <mergeCell ref="D110:H110"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="D144:D145"/>
+    <mergeCell ref="E144:E145"/>
+    <mergeCell ref="D156:D157"/>
+    <mergeCell ref="E156:E157"/>
+    <mergeCell ref="G156:H157"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="B176:B178"/>
+    <mergeCell ref="C176:C177"/>
+    <mergeCell ref="D176:D177"/>
+    <mergeCell ref="E176:E177"/>
+    <mergeCell ref="C178:D178"/>
+    <mergeCell ref="D173:D174"/>
+    <mergeCell ref="E173:E174"/>
+    <mergeCell ref="G173:H174"/>
+    <mergeCell ref="B173:B174"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="B159:B161"/>
+    <mergeCell ref="C159:C160"/>
+    <mergeCell ref="D159:D160"/>
+    <mergeCell ref="E159:E160"/>
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="B144:B146"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B3:F3 B6:F6 B8:F8 B10:F10 B13:F13 B17 B4 E4 C11">
-    <cfRule type="expression" dxfId="660" priority="394">
+    <cfRule type="expression" dxfId="668" priority="394">
       <formula>MONTH(B3)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:F21 B25:F25 B27:F27 B29:F29 B32:F32 B36:C36 B30:C30">
-    <cfRule type="expression" dxfId="659" priority="383">
+    <cfRule type="expression" dxfId="667" priority="383">
       <formula>MONTH(B21)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40:F40 B44:F44 B46:F46 B48:F48 B51:F51 B55:C55">
-    <cfRule type="expression" dxfId="658" priority="381">
+    <cfRule type="expression" dxfId="666" priority="381">
       <formula>MONTH(B40)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59:F60 B62:F62 B64:F64 B66:F66 B69:F69 B73:C73 B67:C67">
-    <cfRule type="expression" dxfId="657" priority="379">
+    <cfRule type="expression" dxfId="665" priority="379">
       <formula>MONTH(B59)&lt;&gt;Calendar4MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B77:F77 B81:F81 B83:F83 B85:F85 B88:F88 B92:C92 B89:B90 B86:C86">
-    <cfRule type="expression" dxfId="656" priority="377">
+    <cfRule type="expression" dxfId="664" priority="377">
       <formula>MONTH(B77)&lt;&gt;Calendar5MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B96:F96 B98:F98 B100:F100 B103:F103 B107:F108 B110:C110 B101:C101">
-    <cfRule type="expression" dxfId="655" priority="375">
+    <cfRule type="expression" dxfId="663" priority="375">
       <formula>MONTH(B96)&lt;&gt;Calendar6MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B114:F114 B117:F117 B119:F119 B121:F121 B124:F124 B128:C128 B122:C122 B115:D115">
-    <cfRule type="expression" dxfId="654" priority="373">
+    <cfRule type="expression" dxfId="662" priority="373">
       <formula>MONTH(B114)&lt;&gt;Calendar7MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B132:F132 B136:F136 B138:F138 B140:F140 B143:F143 B147:C147 B141:C141">
-    <cfRule type="expression" dxfId="653" priority="371">
+    <cfRule type="expression" dxfId="661" priority="371">
       <formula>MONTH(B132)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B151:F151 B153:F153 B155:F155 B158:F158 B162:F162 B164:C164 B156:C156">
-    <cfRule type="expression" dxfId="652" priority="369">
+    <cfRule type="expression" dxfId="660" priority="369">
       <formula>MONTH(B151)&lt;&gt;Calendar9MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B168:F168 B170:F170 B172:F172 B175:F175 B179:F179 B181:C181 B173:C173">
-    <cfRule type="expression" dxfId="651" priority="359">
+    <cfRule type="expression" dxfId="659" priority="359">
       <formula>MONTH(B168)&lt;&gt;Calendar10MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B185:F185 B187:F187 B189:F189 B192:F192 B196:F196 B198:C198 B190:C190">
-    <cfRule type="expression" dxfId="650" priority="358">
+    <cfRule type="expression" dxfId="658" priority="358">
       <formula>MONTH(B185)&lt;&gt;Calendar11MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B202:F202 B204:F204 B207:F207 B211:F211 B213:F213 B215:C215 B205:C205">
-    <cfRule type="expression" dxfId="649" priority="357">
+    <cfRule type="expression" dxfId="657" priority="357">
       <formula>MONTH(B202)&lt;&gt;Calendar12MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="648" priority="356">
+    <cfRule type="expression" dxfId="656" priority="356">
       <formula>MONTH(C4)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="647" priority="355">
+    <cfRule type="expression" dxfId="655" priority="355">
       <formula>MONTH(C5)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="646" priority="354">
+    <cfRule type="expression" dxfId="654" priority="354">
       <formula>MONTH(D4)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="645" priority="353">
+    <cfRule type="expression" dxfId="653" priority="353">
       <formula>MONTH(D4)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="644" priority="352">
+    <cfRule type="expression" dxfId="652" priority="352">
       <formula>MONTH(D5)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="643" priority="351">
+    <cfRule type="expression" dxfId="651" priority="351">
       <formula>MONTH(D5)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="expression" dxfId="642" priority="350">
+    <cfRule type="expression" dxfId="650" priority="350">
       <formula>MONTH(F4)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="expression" dxfId="641" priority="349">
+    <cfRule type="expression" dxfId="649" priority="349">
       <formula>MONTH(F5)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="640" priority="348">
+    <cfRule type="expression" dxfId="648" priority="348">
       <formula>MONTH(G4)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="expression" dxfId="639" priority="347">
+    <cfRule type="expression" dxfId="647" priority="347">
       <formula>MONTH(G3)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="expression" dxfId="638" priority="346">
+    <cfRule type="expression" dxfId="646" priority="346">
       <formula>MONTH(H3)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="637" priority="345">
+    <cfRule type="expression" dxfId="645" priority="345">
       <formula>MONTH(G6)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="expression" dxfId="636" priority="344">
+    <cfRule type="expression" dxfId="644" priority="344">
       <formula>MONTH(H6)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="635" priority="343">
+    <cfRule type="expression" dxfId="643" priority="343">
       <formula>MONTH(G8)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="634" priority="342">
+    <cfRule type="expression" dxfId="642" priority="342">
       <formula>MONTH(H8)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="633" priority="341">
+    <cfRule type="expression" dxfId="641" priority="341">
       <formula>MONTH(G10)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="632" priority="340">
+    <cfRule type="expression" dxfId="640" priority="340">
       <formula>MONTH(H10)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13:G15">
-    <cfRule type="expression" dxfId="631" priority="339">
+    <cfRule type="expression" dxfId="639" priority="339">
       <formula>MONTH(G13)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:H15">
-    <cfRule type="expression" dxfId="630" priority="338">
+    <cfRule type="expression" dxfId="638" priority="338">
       <formula>MONTH(H13)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="629" priority="337">
+    <cfRule type="expression" dxfId="637" priority="337">
       <formula>MONTH(C17)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="628" priority="336">
+    <cfRule type="expression" dxfId="636" priority="336">
       <formula>MONTH(F7)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="expression" dxfId="627" priority="335">
+    <cfRule type="expression" dxfId="635" priority="335">
       <formula>MONTH(F9)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="expression" dxfId="626" priority="334">
+    <cfRule type="expression" dxfId="634" priority="334">
       <formula>MONTH(B11)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="expression" dxfId="625" priority="333">
+    <cfRule type="expression" dxfId="633" priority="333">
       <formula>MONTH(B11)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="expression" dxfId="624" priority="332">
+    <cfRule type="expression" dxfId="632" priority="332">
       <formula>MONTH(B12)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="expression" dxfId="623" priority="331">
+    <cfRule type="expression" dxfId="631" priority="331">
       <formula>MONTH(B12)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="622" priority="330">
+    <cfRule type="expression" dxfId="630" priority="330">
       <formula>MONTH(D11)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="expression" dxfId="621" priority="329">
+    <cfRule type="expression" dxfId="629" priority="329">
       <formula>MONTH(F11)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="620" priority="328">
+    <cfRule type="expression" dxfId="628" priority="328">
       <formula>MONTH(F12)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="619" priority="327">
+    <cfRule type="expression" dxfId="627" priority="327">
       <formula>MONTH(B14)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="618" priority="326">
+    <cfRule type="expression" dxfId="626" priority="326">
       <formula>MONTH(D14)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="617" priority="321">
+    <cfRule type="expression" dxfId="625" priority="321">
       <formula>MONTH(E16)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="expression" dxfId="616" priority="325">
+    <cfRule type="expression" dxfId="624" priority="325">
       <formula>MONTH(E14)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="expression" dxfId="615" priority="324">
+    <cfRule type="expression" dxfId="623" priority="324">
       <formula>MONTH(E14)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="614" priority="323">
+    <cfRule type="expression" dxfId="622" priority="323">
       <formula>MONTH(E16)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="613" priority="322">
+    <cfRule type="expression" dxfId="621" priority="322">
       <formula>MONTH(E16)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="612" priority="239">
+    <cfRule type="expression" dxfId="620" priority="239">
       <formula>MONTH(E24)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="expression" dxfId="611" priority="319">
+    <cfRule type="expression" dxfId="619" priority="319">
       <formula>MONTH(K7)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49">
-    <cfRule type="expression" dxfId="610" priority="215">
+    <cfRule type="expression" dxfId="618" priority="215">
       <formula>MONTH(B49)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41">
-    <cfRule type="expression" dxfId="609" priority="226">
+    <cfRule type="expression" dxfId="617" priority="226">
       <formula>MONTH(D41)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="expression" dxfId="608" priority="209">
+    <cfRule type="expression" dxfId="616" priority="209">
       <formula>MONTH(F50)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="expression" dxfId="607" priority="233">
+    <cfRule type="expression" dxfId="615" priority="233">
       <formula>MONTH(E33)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="expression" dxfId="606" priority="246">
+    <cfRule type="expression" dxfId="614" priority="246">
       <formula>MONTH(D30)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="expression" dxfId="605" priority="312">
+    <cfRule type="expression" dxfId="613" priority="312">
       <formula>MONTH(B30)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="expression" dxfId="604" priority="311">
+    <cfRule type="expression" dxfId="612" priority="311">
       <formula>MONTH(B30)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89">
-    <cfRule type="expression" dxfId="603" priority="310">
+    <cfRule type="expression" dxfId="611" priority="310">
       <formula>MONTH(B89)&lt;&gt;Calendar5MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89">
-    <cfRule type="expression" dxfId="602" priority="309">
+    <cfRule type="expression" dxfId="610" priority="309">
       <formula>MONTH(B89)&lt;&gt;Calendar5MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F115">
-    <cfRule type="expression" dxfId="601" priority="308">
+    <cfRule type="expression" dxfId="609" priority="308">
       <formula>MONTH(F115)&lt;&gt;Calendar7MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F115">
-    <cfRule type="expression" dxfId="600" priority="307">
+    <cfRule type="expression" dxfId="608" priority="307">
       <formula>MONTH(F115)&lt;&gt;Calendar7MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B154">
-    <cfRule type="expression" dxfId="599" priority="306">
+    <cfRule type="expression" dxfId="607" priority="306">
       <formula>MONTH(B154)&lt;&gt;Calendar9MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B154">
-    <cfRule type="expression" dxfId="598" priority="305">
+    <cfRule type="expression" dxfId="606" priority="305">
       <formula>MONTH(B154)&lt;&gt;Calendar9MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D190">
-    <cfRule type="expression" dxfId="597" priority="303">
+    <cfRule type="expression" dxfId="605" priority="303">
       <formula>MONTH(D190)&lt;&gt;Calendar11MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F212">
-    <cfRule type="expression" dxfId="596" priority="302">
+    <cfRule type="expression" dxfId="604" priority="302">
       <formula>MONTH(F212)&lt;&gt;Calendar12MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F212">
-    <cfRule type="expression" dxfId="595" priority="301">
+    <cfRule type="expression" dxfId="603" priority="301">
       <formula>MONTH(F212)&lt;&gt;Calendar12MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="expression" dxfId="594" priority="245">
+    <cfRule type="expression" dxfId="602" priority="245">
       <formula>MONTH(F30)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="expression" dxfId="593" priority="232">
+    <cfRule type="expression" dxfId="601" priority="232">
       <formula>MONTH(E33)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="592" priority="234">
+    <cfRule type="expression" dxfId="600" priority="234">
       <formula>MONTH(D33)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="expression" dxfId="591" priority="244">
+    <cfRule type="expression" dxfId="599" priority="244">
       <formula>MONTH(F31)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="expression" dxfId="590" priority="235">
+    <cfRule type="expression" dxfId="598" priority="235">
       <formula>MONTH(B33)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="expression" dxfId="589" priority="229">
+    <cfRule type="expression" dxfId="597" priority="229">
       <formula>MONTH(E35)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21:G23 G25 G27 G29 G32:G34">
-    <cfRule type="expression" dxfId="588" priority="284">
+    <cfRule type="expression" dxfId="596" priority="284">
       <formula>MONTH(G21)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21:H23 H25 H27 H29 H32:H34">
-    <cfRule type="expression" dxfId="587" priority="283">
+    <cfRule type="expression" dxfId="595" priority="283">
       <formula>MONTH(H21)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40:G42 G44 G46 G48 G51:G53">
-    <cfRule type="expression" dxfId="586" priority="282">
+    <cfRule type="expression" dxfId="594" priority="282">
       <formula>MONTH(G40)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40:H42 H44 H46 H48 H51:H53">
-    <cfRule type="expression" dxfId="585" priority="281">
+    <cfRule type="expression" dxfId="593" priority="281">
       <formula>MONTH(H40)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G59:G60 G62 G64 G66 G69:G71">
-    <cfRule type="expression" dxfId="584" priority="280">
+    <cfRule type="expression" dxfId="592" priority="280">
       <formula>MONTH(G59)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59:H60 H62 H64 H66 H69:H71">
-    <cfRule type="expression" dxfId="583" priority="279">
+    <cfRule type="expression" dxfId="591" priority="279">
       <formula>MONTH(H59)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G77:G79 G81 G83 G85 G88:G90">
-    <cfRule type="expression" dxfId="582" priority="278">
+    <cfRule type="expression" dxfId="590" priority="278">
       <formula>MONTH(G77)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H77:H79 H81 H83 H85 H88:H90">
-    <cfRule type="expression" dxfId="581" priority="277">
+    <cfRule type="expression" dxfId="589" priority="277">
       <formula>MONTH(H77)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G96 G98 G100 G103:G105 G107:G108">
-    <cfRule type="expression" dxfId="580" priority="276">
+    <cfRule type="expression" dxfId="588" priority="276">
       <formula>MONTH(G96)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H96 H98 H100 H103:H105 H107:H108">
-    <cfRule type="expression" dxfId="579" priority="275">
+    <cfRule type="expression" dxfId="587" priority="275">
       <formula>MONTH(H96)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G114:G115 G117 G119 G121 G124:G126">
-    <cfRule type="expression" dxfId="578" priority="274">
+    <cfRule type="expression" dxfId="586" priority="274">
       <formula>MONTH(G114)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H114:H115 H117 H119 H121 H124:H126">
-    <cfRule type="expression" dxfId="577" priority="273">
+    <cfRule type="expression" dxfId="585" priority="273">
       <formula>MONTH(H114)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G132:G134 G136 G138 G140 G143:G145">
-    <cfRule type="expression" dxfId="576" priority="272">
+    <cfRule type="expression" dxfId="584" priority="272">
       <formula>MONTH(G132)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H132:H134 H136 H138 H140 H143:H145">
-    <cfRule type="expression" dxfId="575" priority="271">
+    <cfRule type="expression" dxfId="583" priority="271">
       <formula>MONTH(H132)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G151 G153 G155 G158:G160 G162">
-    <cfRule type="expression" dxfId="574" priority="270">
+    <cfRule type="expression" dxfId="582" priority="270">
       <formula>MONTH(G151)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H151 H153 H155 H158:H160 H162">
-    <cfRule type="expression" dxfId="573" priority="269">
+    <cfRule type="expression" dxfId="581" priority="269">
       <formula>MONTH(H151)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G168 G170 G172 G175:G177 G179">
-    <cfRule type="expression" dxfId="572" priority="268">
+    <cfRule type="expression" dxfId="580" priority="268">
       <formula>MONTH(G168)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H168 H170 H172 H175:H177 H179">
-    <cfRule type="expression" dxfId="571" priority="267">
+    <cfRule type="expression" dxfId="579" priority="267">
       <formula>MONTH(H168)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G185 G187 G189 G192:G194 G196">
-    <cfRule type="expression" dxfId="570" priority="266">
+    <cfRule type="expression" dxfId="578" priority="266">
       <formula>MONTH(G185)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H185 H187 H189 H192:H194 H196">
-    <cfRule type="expression" dxfId="569" priority="265">
+    <cfRule type="expression" dxfId="577" priority="265">
       <formula>MONTH(H185)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G202 G204 G207:G209 G211 G213">
-    <cfRule type="expression" dxfId="568" priority="264">
+    <cfRule type="expression" dxfId="576" priority="264">
       <formula>MONTH(G202)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H202 H204 H207:H209 H211 H213">
-    <cfRule type="expression" dxfId="567" priority="263">
+    <cfRule type="expression" dxfId="575" priority="263">
       <formula>MONTH(H202)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G115">
-    <cfRule type="expression" dxfId="566" priority="262">
+    <cfRule type="expression" dxfId="574" priority="262">
       <formula>MONTH(G115)&lt;&gt;Calendar7MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G115">
-    <cfRule type="expression" dxfId="565" priority="261">
+    <cfRule type="expression" dxfId="573" priority="261">
       <formula>MONTH(G115)&lt;&gt;Calendar7MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="expression" dxfId="564" priority="193">
+    <cfRule type="expression" dxfId="572" priority="193">
       <formula>MONTH(E72)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="expression" dxfId="563" priority="203">
+    <cfRule type="expression" dxfId="571" priority="203">
       <formula>MONTH(E54)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="expression" dxfId="562" priority="250">
+    <cfRule type="expression" dxfId="570" priority="250">
       <formula>MONTH(F28)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="expression" dxfId="561" priority="205">
+    <cfRule type="expression" dxfId="569" priority="205">
       <formula>MONTH(E52)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="expression" dxfId="560" priority="240">
+    <cfRule type="expression" dxfId="568" priority="240">
       <formula>MONTH(E22)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="expression" dxfId="559" priority="221">
+    <cfRule type="expression" dxfId="567" priority="221">
       <formula>MONTH(E43)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61">
-    <cfRule type="expression" dxfId="558" priority="169">
+    <cfRule type="expression" dxfId="566" priority="169">
       <formula>MONTH(F61)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="expression" dxfId="557" priority="251">
+    <cfRule type="expression" dxfId="565" priority="251">
       <formula>MONTH(F26)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F68">
-    <cfRule type="expression" dxfId="556" priority="189">
+    <cfRule type="expression" dxfId="564" priority="189">
       <formula>MONTH(F68)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="expression" dxfId="555" priority="249">
+    <cfRule type="expression" dxfId="563" priority="249">
       <formula>MONTH(B31)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="expression" dxfId="554" priority="248">
+    <cfRule type="expression" dxfId="562" priority="248">
       <formula>MONTH(B31)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="expression" dxfId="553" priority="247">
+    <cfRule type="expression" dxfId="561" priority="247">
       <formula>MONTH(B31)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="552" priority="238">
+    <cfRule type="expression" dxfId="560" priority="238">
       <formula>MONTH(E24)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="551" priority="237">
+    <cfRule type="expression" dxfId="559" priority="237">
       <formula>MONTH(E24)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="expression" dxfId="550" priority="196">
+    <cfRule type="expression" dxfId="558" priority="196">
       <formula>MONTH(E70)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="expression" dxfId="549" priority="243">
+    <cfRule type="expression" dxfId="557" priority="243">
       <formula>MONTH(B22)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="548" priority="242">
+    <cfRule type="expression" dxfId="556" priority="242">
       <formula>MONTH(D22)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67">
-    <cfRule type="expression" dxfId="547" priority="190">
+    <cfRule type="expression" dxfId="555" priority="190">
       <formula>MONTH(F67)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="expression" dxfId="546" priority="241">
+    <cfRule type="expression" dxfId="554" priority="241">
       <formula>MONTH(E22)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="expression" dxfId="545" priority="230">
+    <cfRule type="expression" dxfId="553" priority="230">
       <formula>MONTH(E35)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="expression" dxfId="544" priority="231">
+    <cfRule type="expression" dxfId="552" priority="231">
       <formula>MONTH(E35)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49">
-    <cfRule type="expression" dxfId="543" priority="210">
+    <cfRule type="expression" dxfId="551" priority="210">
       <formula>MONTH(F49)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="expression" dxfId="542" priority="195">
+    <cfRule type="expression" dxfId="550" priority="195">
       <formula>MONTH(E72)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="expression" dxfId="541" priority="227">
+    <cfRule type="expression" dxfId="549" priority="227">
       <formula>MONTH(B41)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="expression" dxfId="540" priority="211">
+    <cfRule type="expression" dxfId="548" priority="211">
       <formula>MONTH(D49)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="expression" dxfId="539" priority="198">
+    <cfRule type="expression" dxfId="547" priority="198">
       <formula>MONTH(D70)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="expression" dxfId="538" priority="202">
+    <cfRule type="expression" dxfId="546" priority="202">
       <formula>MONTH(E54)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="expression" dxfId="537" priority="204">
+    <cfRule type="expression" dxfId="545" priority="204">
       <formula>MONTH(E54)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71">
-    <cfRule type="expression" dxfId="536" priority="165">
+    <cfRule type="expression" dxfId="544" priority="165">
       <formula>MONTH(F71)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F70:F71">
-    <cfRule type="expression" dxfId="535" priority="167">
+    <cfRule type="expression" dxfId="543" priority="167">
       <formula>MONTH(F70)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="expression" dxfId="534" priority="206">
+    <cfRule type="expression" dxfId="542" priority="206">
       <formula>MONTH(E52)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="expression" dxfId="533" priority="181">
+    <cfRule type="expression" dxfId="541" priority="181">
       <formula>MONTH(F15)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="expression" dxfId="532" priority="225">
+    <cfRule type="expression" dxfId="540" priority="225">
       <formula>MONTH(E41)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="expression" dxfId="531" priority="224">
+    <cfRule type="expression" dxfId="539" priority="224">
       <formula>MONTH(E41)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="expression" dxfId="530" priority="223">
+    <cfRule type="expression" dxfId="538" priority="223">
       <formula>MONTH(E43)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="expression" dxfId="529" priority="222">
+    <cfRule type="expression" dxfId="537" priority="222">
       <formula>MONTH(E43)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F89:F90">
-    <cfRule type="expression" dxfId="528" priority="156">
+    <cfRule type="expression" dxfId="536" priority="156">
       <formula>MONTH(F89)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45">
-    <cfRule type="expression" dxfId="527" priority="219">
+    <cfRule type="expression" dxfId="535" priority="219">
       <formula>MONTH(F45)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47">
-    <cfRule type="expression" dxfId="526" priority="218">
+    <cfRule type="expression" dxfId="534" priority="218">
       <formula>MONTH(F47)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:C49">
-    <cfRule type="expression" dxfId="525" priority="217">
+    <cfRule type="expression" dxfId="533" priority="217">
       <formula>MONTH(B49)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49">
-    <cfRule type="expression" dxfId="524" priority="216">
+    <cfRule type="expression" dxfId="532" priority="216">
       <formula>MONTH(B49)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">
-    <cfRule type="expression" dxfId="523" priority="172">
+    <cfRule type="expression" dxfId="531" priority="172">
       <formula>MONTH(F43)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="expression" dxfId="522" priority="173">
+    <cfRule type="expression" dxfId="530" priority="173">
       <formula>MONTH(F42)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33:F34">
-    <cfRule type="expression" dxfId="521" priority="178">
+    <cfRule type="expression" dxfId="529" priority="178">
       <formula>MONTH(F33)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F70:F71">
-    <cfRule type="expression" dxfId="520" priority="166">
+    <cfRule type="expression" dxfId="528" priority="166">
       <formula>MONTH(F70)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41:F42">
-    <cfRule type="expression" dxfId="519" priority="175">
+    <cfRule type="expression" dxfId="527" priority="175">
       <formula>MONTH(F41)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="expression" dxfId="518" priority="184">
+    <cfRule type="expression" dxfId="526" priority="184">
       <formula>MONTH(F24)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41:F42">
-    <cfRule type="expression" dxfId="517" priority="174">
+    <cfRule type="expression" dxfId="525" priority="174">
       <formula>MONTH(F41)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="expression" dxfId="516" priority="177">
+    <cfRule type="expression" dxfId="524" priority="177">
       <formula>MONTH(F34)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="expression" dxfId="515" priority="158">
+    <cfRule type="expression" dxfId="523" priority="158">
       <formula>MONTH(E91)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52">
-    <cfRule type="expression" dxfId="514" priority="208">
+    <cfRule type="expression" dxfId="522" priority="208">
       <formula>MONTH(B52)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="expression" dxfId="513" priority="207">
+    <cfRule type="expression" dxfId="521" priority="207">
       <formula>MONTH(D52)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F78:F79">
-    <cfRule type="expression" dxfId="512" priority="139">
+    <cfRule type="expression" dxfId="520" priority="139">
       <formula>MONTH(F78)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="expression" dxfId="511" priority="180">
+    <cfRule type="expression" dxfId="519" priority="180">
       <formula>MONTH(F16)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F63">
-    <cfRule type="expression" dxfId="510" priority="200">
+    <cfRule type="expression" dxfId="518" priority="200">
       <formula>MONTH(F63)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22:F23">
-    <cfRule type="expression" dxfId="509" priority="186">
+    <cfRule type="expression" dxfId="517" priority="186">
       <formula>MONTH(F22)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F89:F90">
-    <cfRule type="expression" dxfId="508" priority="155">
+    <cfRule type="expression" dxfId="516" priority="155">
       <formula>MONTH(F89)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="expression" dxfId="507" priority="194">
+    <cfRule type="expression" dxfId="515" priority="194">
       <formula>MONTH(E72)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="expression" dxfId="506" priority="199">
+    <cfRule type="expression" dxfId="514" priority="199">
       <formula>MONTH(B70)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="expression" dxfId="505" priority="197">
+    <cfRule type="expression" dxfId="513" priority="197">
       <formula>MONTH(E70)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F82">
-    <cfRule type="expression" dxfId="504" priority="135">
+    <cfRule type="expression" dxfId="512" priority="135">
       <formula>MONTH(F82)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22:F23">
-    <cfRule type="expression" dxfId="503" priority="187">
+    <cfRule type="expression" dxfId="511" priority="187">
       <formula>MONTH(F22)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="expression" dxfId="502" priority="160">
+    <cfRule type="expression" dxfId="510" priority="160">
       <formula>MONTH(E89)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="expression" dxfId="501" priority="185">
+    <cfRule type="expression" dxfId="509" priority="185">
       <formula>MONTH(F23)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="expression" dxfId="500" priority="191">
+    <cfRule type="expression" dxfId="508" priority="191">
       <formula>MONTH(D67)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F65">
-    <cfRule type="expression" dxfId="499" priority="188">
+    <cfRule type="expression" dxfId="507" priority="188">
       <formula>MONTH(F65)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60:F61">
-    <cfRule type="expression" dxfId="498" priority="171">
+    <cfRule type="expression" dxfId="506" priority="171">
       <formula>MONTH(F60)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F15">
-    <cfRule type="expression" dxfId="497" priority="183">
+    <cfRule type="expression" dxfId="505" priority="183">
       <formula>MONTH(F14)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60:F61">
-    <cfRule type="expression" dxfId="496" priority="170">
+    <cfRule type="expression" dxfId="504" priority="170">
       <formula>MONTH(F60)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F127">
-    <cfRule type="expression" dxfId="495" priority="108">
+    <cfRule type="expression" dxfId="503" priority="108">
       <formula>MONTH(F127)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F15">
-    <cfRule type="expression" dxfId="494" priority="182">
+    <cfRule type="expression" dxfId="502" priority="182">
       <formula>MONTH(F14)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="expression" dxfId="493" priority="176">
+    <cfRule type="expression" dxfId="501" priority="176">
       <formula>MONTH(F35)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F87">
-    <cfRule type="expression" dxfId="492" priority="148">
+    <cfRule type="expression" dxfId="500" priority="148">
       <formula>MONTH(F87)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33:F34">
-    <cfRule type="expression" dxfId="491" priority="179">
+    <cfRule type="expression" dxfId="499" priority="179">
       <formula>MONTH(F33)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F84">
-    <cfRule type="expression" dxfId="490" priority="147">
+    <cfRule type="expression" dxfId="498" priority="147">
       <formula>MONTH(F84)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="expression" dxfId="489" priority="128">
+    <cfRule type="expression" dxfId="497" priority="128">
       <formula>MONTH(E106)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F86">
-    <cfRule type="expression" dxfId="488" priority="149">
+    <cfRule type="expression" dxfId="496" priority="149">
       <formula>MONTH(F86)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108:E109">
-    <cfRule type="expression" dxfId="487" priority="125">
+    <cfRule type="expression" dxfId="495" priority="125">
       <formula>MONTH(E108)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="expression" dxfId="486" priority="157">
+    <cfRule type="expression" dxfId="494" priority="157">
       <formula>MONTH(E91)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52">
-    <cfRule type="expression" dxfId="485" priority="168">
+    <cfRule type="expression" dxfId="493" priority="168">
       <formula>MONTH(F52)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F78:F79">
-    <cfRule type="expression" dxfId="484" priority="138">
+    <cfRule type="expression" dxfId="492" priority="138">
       <formula>MONTH(F78)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E115:E116">
-    <cfRule type="expression" dxfId="483" priority="101">
+    <cfRule type="expression" dxfId="491" priority="101">
       <formula>MONTH(E115)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E135">
-    <cfRule type="expression" dxfId="482" priority="74">
+    <cfRule type="expression" dxfId="490" priority="74">
       <formula>MONTH(E135)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F101">
-    <cfRule type="expression" dxfId="481" priority="120">
+    <cfRule type="expression" dxfId="489" priority="120">
       <formula>MONTH(F101)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F91">
-    <cfRule type="expression" dxfId="480" priority="153">
+    <cfRule type="expression" dxfId="488" priority="153">
       <formula>MONTH(F91)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D101">
-    <cfRule type="expression" dxfId="479" priority="121">
+    <cfRule type="expression" dxfId="487" priority="121">
       <formula>MONTH(D101)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F72">
-    <cfRule type="expression" dxfId="478" priority="164">
+    <cfRule type="expression" dxfId="486" priority="164">
       <formula>MONTH(F72)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="expression" dxfId="477" priority="142">
+    <cfRule type="expression" dxfId="485" priority="142">
       <formula>MONTH(E80)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E127">
-    <cfRule type="expression" dxfId="476" priority="112">
+    <cfRule type="expression" dxfId="484" priority="112">
       <formula>MONTH(E127)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="expression" dxfId="475" priority="143">
+    <cfRule type="expression" dxfId="483" priority="143">
       <formula>MONTH(E78)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F99">
-    <cfRule type="expression" dxfId="474" priority="133">
+    <cfRule type="expression" dxfId="482" priority="133">
       <formula>MONTH(F99)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D89">
-    <cfRule type="expression" dxfId="473" priority="162">
+    <cfRule type="expression" dxfId="481" priority="162">
       <formula>MONTH(D89)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="expression" dxfId="472" priority="161">
+    <cfRule type="expression" dxfId="480" priority="161">
       <formula>MONTH(E89)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="expression" dxfId="471" priority="159">
+    <cfRule type="expression" dxfId="479" priority="159">
       <formula>MONTH(E91)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F90">
-    <cfRule type="expression" dxfId="470" priority="154">
+    <cfRule type="expression" dxfId="478" priority="154">
       <formula>MONTH(F90)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F146">
-    <cfRule type="expression" dxfId="469" priority="84">
+    <cfRule type="expression" dxfId="477" priority="84">
       <formula>MONTH(F146)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="expression" dxfId="468" priority="141">
+    <cfRule type="expression" dxfId="476" priority="141">
       <formula>MONTH(E80)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F104">
-    <cfRule type="expression" dxfId="467" priority="122">
+    <cfRule type="expression" dxfId="475" priority="122">
       <formula>MONTH(F104)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90">
-    <cfRule type="expression" dxfId="466" priority="152">
+    <cfRule type="expression" dxfId="474" priority="152">
       <formula>MONTH(B90)&lt;&gt;Calendar5MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90">
-    <cfRule type="expression" dxfId="465" priority="151">
+    <cfRule type="expression" dxfId="473" priority="151">
       <formula>MONTH(B90)&lt;&gt;Calendar5MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F79">
-    <cfRule type="expression" dxfId="464" priority="137">
+    <cfRule type="expression" dxfId="472" priority="137">
       <formula>MONTH(F79)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D86">
-    <cfRule type="expression" dxfId="463" priority="150">
+    <cfRule type="expression" dxfId="471" priority="150">
       <formula>MONTH(D86)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E127">
-    <cfRule type="expression" dxfId="462" priority="113">
+    <cfRule type="expression" dxfId="470" priority="113">
       <formula>MONTH(E127)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E104">
-    <cfRule type="expression" dxfId="461" priority="129">
+    <cfRule type="expression" dxfId="469" priority="129">
       <formula>MONTH(E104)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109">
-    <cfRule type="expression" dxfId="460" priority="123">
+    <cfRule type="expression" dxfId="468" priority="123">
       <formula>MONTH(E109)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108:E109">
-    <cfRule type="expression" dxfId="459" priority="124">
+    <cfRule type="expression" dxfId="467" priority="124">
       <formula>MONTH(E108)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="expression" dxfId="458" priority="140">
+    <cfRule type="expression" dxfId="466" priority="140">
       <formula>MONTH(E80)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="expression" dxfId="457" priority="127">
+    <cfRule type="expression" dxfId="465" priority="127">
       <formula>MONTH(E106)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78">
-    <cfRule type="expression" dxfId="456" priority="146">
+    <cfRule type="expression" dxfId="464" priority="146">
       <formula>MONTH(B78)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D78">
-    <cfRule type="expression" dxfId="455" priority="145">
+    <cfRule type="expression" dxfId="463" priority="145">
       <formula>MONTH(D78)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="expression" dxfId="454" priority="144">
+    <cfRule type="expression" dxfId="462" priority="144">
       <formula>MONTH(E78)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F137">
-    <cfRule type="expression" dxfId="453" priority="79">
+    <cfRule type="expression" dxfId="461" priority="79">
       <formula>MONTH(F137)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F80">
-    <cfRule type="expression" dxfId="452" priority="136">
+    <cfRule type="expression" dxfId="460" priority="136">
       <formula>MONTH(F80)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F97">
-    <cfRule type="expression" dxfId="451" priority="134">
+    <cfRule type="expression" dxfId="459" priority="134">
       <formula>MONTH(F97)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F102">
-    <cfRule type="expression" dxfId="450" priority="119">
+    <cfRule type="expression" dxfId="458" priority="119">
       <formula>MONTH(F102)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F126">
-    <cfRule type="expression" dxfId="449" priority="109">
+    <cfRule type="expression" dxfId="457" priority="109">
       <formula>MONTH(F126)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F125:F126">
-    <cfRule type="expression" dxfId="448" priority="110">
+    <cfRule type="expression" dxfId="456" priority="110">
       <formula>MONTH(F125)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E125">
-    <cfRule type="expression" dxfId="447" priority="115">
+    <cfRule type="expression" dxfId="455" priority="115">
       <formula>MONTH(E125)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="expression" dxfId="446" priority="126">
+    <cfRule type="expression" dxfId="454" priority="126">
       <formula>MONTH(E106)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D122">
-    <cfRule type="expression" dxfId="445" priority="107">
+    <cfRule type="expression" dxfId="453" priority="107">
       <formula>MONTH(D122)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104">
-    <cfRule type="expression" dxfId="444" priority="132">
+    <cfRule type="expression" dxfId="452" priority="132">
       <formula>MONTH(B104)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D104">
-    <cfRule type="expression" dxfId="443" priority="131">
+    <cfRule type="expression" dxfId="451" priority="131">
       <formula>MONTH(D104)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E104">
-    <cfRule type="expression" dxfId="442" priority="130">
+    <cfRule type="expression" dxfId="450" priority="130">
       <formula>MONTH(E104)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F118">
-    <cfRule type="expression" dxfId="441" priority="103">
+    <cfRule type="expression" dxfId="449" priority="103">
       <formula>MONTH(F118)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E116">
-    <cfRule type="expression" dxfId="440" priority="99">
+    <cfRule type="expression" dxfId="448" priority="99">
       <formula>MONTH(E116)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E115:E116">
-    <cfRule type="expression" dxfId="439" priority="100">
+    <cfRule type="expression" dxfId="447" priority="100">
       <formula>MONTH(E115)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F142">
-    <cfRule type="expression" dxfId="438" priority="81">
+    <cfRule type="expression" dxfId="446" priority="81">
       <formula>MONTH(F142)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F159:F160">
-    <cfRule type="expression" dxfId="437" priority="60">
+    <cfRule type="expression" dxfId="445" priority="60">
       <formula>MONTH(F159)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E144">
-    <cfRule type="expression" dxfId="436" priority="91">
+    <cfRule type="expression" dxfId="444" priority="91">
       <formula>MONTH(E144)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F141">
-    <cfRule type="expression" dxfId="435" priority="82">
+    <cfRule type="expression" dxfId="443" priority="82">
       <formula>MONTH(F141)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E127">
-    <cfRule type="expression" dxfId="434" priority="114">
+    <cfRule type="expression" dxfId="442" priority="114">
       <formula>MONTH(E127)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F123">
-    <cfRule type="expression" dxfId="433" priority="105">
+    <cfRule type="expression" dxfId="441" priority="105">
       <formula>MONTH(F123)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F122">
-    <cfRule type="expression" dxfId="432" priority="106">
+    <cfRule type="expression" dxfId="440" priority="106">
       <formula>MONTH(F122)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F120">
-    <cfRule type="expression" dxfId="431" priority="104">
+    <cfRule type="expression" dxfId="439" priority="104">
       <formula>MONTH(F120)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="expression" dxfId="430" priority="118">
+    <cfRule type="expression" dxfId="438" priority="118">
       <formula>MONTH(B125)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D125">
-    <cfRule type="expression" dxfId="429" priority="117">
+    <cfRule type="expression" dxfId="437" priority="117">
       <formula>MONTH(D125)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E125">
-    <cfRule type="expression" dxfId="428" priority="116">
+    <cfRule type="expression" dxfId="436" priority="116">
       <formula>MONTH(E125)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F125:F126">
-    <cfRule type="expression" dxfId="427" priority="111">
+    <cfRule type="expression" dxfId="435" priority="111">
       <formula>MONTH(F125)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E159">
-    <cfRule type="expression" dxfId="426" priority="64">
+    <cfRule type="expression" dxfId="434" priority="64">
       <formula>MONTH(E159)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E161">
-    <cfRule type="expression" dxfId="425" priority="61">
+    <cfRule type="expression" dxfId="433" priority="61">
       <formula>MONTH(E161)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E146">
-    <cfRule type="expression" dxfId="424" priority="89">
+    <cfRule type="expression" dxfId="432" priority="89">
       <formula>MONTH(E146)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E146">
-    <cfRule type="expression" dxfId="423" priority="88">
+    <cfRule type="expression" dxfId="431" priority="88">
       <formula>MONTH(E146)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E115">
-    <cfRule type="expression" dxfId="422" priority="102">
+    <cfRule type="expression" dxfId="430" priority="102">
       <formula>MONTH(E115)&lt;&gt;Calendar6MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E146">
-    <cfRule type="expression" dxfId="421" priority="90">
+    <cfRule type="expression" dxfId="429" priority="90">
       <formula>MONTH(E146)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D141">
-    <cfRule type="expression" dxfId="420" priority="83">
+    <cfRule type="expression" dxfId="428" priority="83">
       <formula>MONTH(D141)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E135">
-    <cfRule type="expression" dxfId="419" priority="73">
+    <cfRule type="expression" dxfId="427" priority="73">
       <formula>MONTH(E135)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F116">
-    <cfRule type="expression" dxfId="418" priority="98">
+    <cfRule type="expression" dxfId="426" priority="98">
       <formula>MONTH(F116)&lt;&gt;Calendar7MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F116">
-    <cfRule type="expression" dxfId="417" priority="97">
+    <cfRule type="expression" dxfId="425" priority="97">
       <formula>MONTH(F116)&lt;&gt;Calendar7MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G116">
-    <cfRule type="expression" dxfId="416" priority="96">
+    <cfRule type="expression" dxfId="424" priority="96">
       <formula>MONTH(G116)&lt;&gt;Calendar7MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G116">
-    <cfRule type="expression" dxfId="415" priority="95">
+    <cfRule type="expression" dxfId="423" priority="95">
       <formula>MONTH(G116)&lt;&gt;Calendar7MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E161">
-    <cfRule type="expression" dxfId="414" priority="62">
+    <cfRule type="expression" dxfId="422" priority="62">
       <formula>MONTH(E161)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E176">
-    <cfRule type="expression" dxfId="413" priority="46">
+    <cfRule type="expression" dxfId="421" priority="46">
       <formula>MONTH(E176)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F145">
-    <cfRule type="expression" dxfId="412" priority="85">
+    <cfRule type="expression" dxfId="420" priority="85">
       <formula>MONTH(F145)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F144:F145">
-    <cfRule type="expression" dxfId="411" priority="86">
+    <cfRule type="expression" dxfId="419" priority="86">
       <formula>MONTH(F144)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F139">
-    <cfRule type="expression" dxfId="410" priority="80">
+    <cfRule type="expression" dxfId="418" priority="80">
       <formula>MONTH(F139)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B144">
-    <cfRule type="expression" dxfId="409" priority="94">
+    <cfRule type="expression" dxfId="417" priority="94">
       <formula>MONTH(B144)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D144">
-    <cfRule type="expression" dxfId="408" priority="93">
+    <cfRule type="expression" dxfId="416" priority="93">
       <formula>MONTH(D144)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E144">
-    <cfRule type="expression" dxfId="407" priority="92">
+    <cfRule type="expression" dxfId="415" priority="92">
       <formula>MONTH(E144)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F144:F145">
-    <cfRule type="expression" dxfId="406" priority="87">
+    <cfRule type="expression" dxfId="414" priority="87">
       <formula>MONTH(F144)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F154">
-    <cfRule type="expression" dxfId="405" priority="53">
+    <cfRule type="expression" dxfId="413" priority="53">
       <formula>MONTH(F154)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F174">
-    <cfRule type="expression" dxfId="404" priority="36">
+    <cfRule type="expression" dxfId="412" priority="36">
       <formula>MONTH(F174)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E135">
-    <cfRule type="expression" dxfId="403" priority="72">
+    <cfRule type="expression" dxfId="411" priority="72">
       <formula>MONTH(E135)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F133:F134">
-    <cfRule type="expression" dxfId="402" priority="70">
+    <cfRule type="expression" dxfId="410" priority="70">
       <formula>MONTH(F133)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F134">
-    <cfRule type="expression" dxfId="401" priority="69">
+    <cfRule type="expression" dxfId="409" priority="69">
       <formula>MONTH(F134)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F135">
-    <cfRule type="expression" dxfId="400" priority="68">
+    <cfRule type="expression" dxfId="408" priority="68">
       <formula>MONTH(F135)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F161">
-    <cfRule type="expression" dxfId="399" priority="57">
+    <cfRule type="expression" dxfId="407" priority="57">
       <formula>MONTH(F161)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E133">
-    <cfRule type="expression" dxfId="398" priority="75">
+    <cfRule type="expression" dxfId="406" priority="75">
       <formula>MONTH(E133)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F133:F134">
-    <cfRule type="expression" dxfId="397" priority="71">
+    <cfRule type="expression" dxfId="405" priority="71">
       <formula>MONTH(F133)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B133">
-    <cfRule type="expression" dxfId="396" priority="78">
+    <cfRule type="expression" dxfId="404" priority="78">
       <formula>MONTH(B133)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D133">
-    <cfRule type="expression" dxfId="395" priority="77">
+    <cfRule type="expression" dxfId="403" priority="77">
       <formula>MONTH(D133)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E133">
-    <cfRule type="expression" dxfId="394" priority="76">
+    <cfRule type="expression" dxfId="402" priority="76">
       <formula>MONTH(E133)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F159:F160">
-    <cfRule type="expression" dxfId="393" priority="59">
+    <cfRule type="expression" dxfId="401" priority="59">
       <formula>MONTH(F159)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F160">
-    <cfRule type="expression" dxfId="392" priority="58">
+    <cfRule type="expression" dxfId="400" priority="58">
       <formula>MONTH(F160)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F169">
-    <cfRule type="expression" dxfId="391" priority="50">
+    <cfRule type="expression" dxfId="399" priority="50">
       <formula>MONTH(F169)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E161">
-    <cfRule type="expression" dxfId="390" priority="63">
+    <cfRule type="expression" dxfId="398" priority="63">
       <formula>MONTH(E161)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E178">
-    <cfRule type="expression" dxfId="389" priority="44">
+    <cfRule type="expression" dxfId="397" priority="44">
       <formula>MONTH(E178)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159">
-    <cfRule type="expression" dxfId="388" priority="67">
+    <cfRule type="expression" dxfId="396" priority="67">
       <formula>MONTH(B159)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D159">
-    <cfRule type="expression" dxfId="387" priority="66">
+    <cfRule type="expression" dxfId="395" priority="66">
       <formula>MONTH(D159)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E159">
-    <cfRule type="expression" dxfId="386" priority="65">
+    <cfRule type="expression" dxfId="394" priority="65">
       <formula>MONTH(E159)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F157">
-    <cfRule type="expression" dxfId="385" priority="54">
+    <cfRule type="expression" dxfId="393" priority="54">
       <formula>MONTH(F157)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F156">
-    <cfRule type="expression" dxfId="384" priority="55">
+    <cfRule type="expression" dxfId="392" priority="55">
       <formula>MONTH(F156)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D156">
-    <cfRule type="expression" dxfId="383" priority="56">
+    <cfRule type="expression" dxfId="391" priority="56">
       <formula>MONTH(D156)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F152">
-    <cfRule type="expression" dxfId="382" priority="52">
+    <cfRule type="expression" dxfId="390" priority="52">
       <formula>MONTH(F152)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F163">
-    <cfRule type="expression" dxfId="381" priority="51">
+    <cfRule type="expression" dxfId="389" priority="51">
       <formula>MONTH(F163)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E178">
-    <cfRule type="expression" dxfId="380" priority="43">
+    <cfRule type="expression" dxfId="388" priority="43">
       <formula>MONTH(E178)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F178">
-    <cfRule type="expression" dxfId="379" priority="39">
+    <cfRule type="expression" dxfId="387" priority="39">
       <formula>MONTH(F178)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F176:F177">
-    <cfRule type="expression" dxfId="378" priority="41">
+    <cfRule type="expression" dxfId="386" priority="41">
       <formula>MONTH(F176)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F177">
-    <cfRule type="expression" dxfId="377" priority="40">
+    <cfRule type="expression" dxfId="385" priority="40">
       <formula>MONTH(F177)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E178">
-    <cfRule type="expression" dxfId="376" priority="45">
+    <cfRule type="expression" dxfId="384" priority="45">
       <formula>MONTH(E178)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B176">
-    <cfRule type="expression" dxfId="375" priority="49">
+    <cfRule type="expression" dxfId="383" priority="49">
       <formula>MONTH(B176)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D176">
-    <cfRule type="expression" dxfId="374" priority="48">
+    <cfRule type="expression" dxfId="382" priority="48">
       <formula>MONTH(D176)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E176">
-    <cfRule type="expression" dxfId="373" priority="47">
+    <cfRule type="expression" dxfId="381" priority="47">
       <formula>MONTH(E176)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F176:F177">
-    <cfRule type="expression" dxfId="372" priority="42">
+    <cfRule type="expression" dxfId="380" priority="42">
       <formula>MONTH(F176)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F173">
-    <cfRule type="expression" dxfId="371" priority="37">
+    <cfRule type="expression" dxfId="379" priority="37">
       <formula>MONTH(F173)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D173">
-    <cfRule type="expression" dxfId="370" priority="38">
+    <cfRule type="expression" dxfId="378" priority="38">
       <formula>MONTH(D173)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F171">
-    <cfRule type="expression" dxfId="369" priority="34">
+    <cfRule type="expression" dxfId="377" priority="34">
       <formula>MONTH(F171)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F180">
-    <cfRule type="expression" dxfId="368" priority="33">
+    <cfRule type="expression" dxfId="376" priority="33">
       <formula>MONTH(F180)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E193">
-    <cfRule type="expression" dxfId="367" priority="29">
+    <cfRule type="expression" dxfId="375" priority="29">
       <formula>MONTH(E193)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E195">
-    <cfRule type="expression" dxfId="366" priority="27">
+    <cfRule type="expression" dxfId="374" priority="27">
       <formula>MONTH(E195)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E195">
-    <cfRule type="expression" dxfId="365" priority="26">
+    <cfRule type="expression" dxfId="373" priority="26">
       <formula>MONTH(E195)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F195">
-    <cfRule type="expression" dxfId="364" priority="22">
+    <cfRule type="expression" dxfId="372" priority="22">
       <formula>MONTH(F195)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F193:F194">
-    <cfRule type="expression" dxfId="363" priority="24">
+    <cfRule type="expression" dxfId="371" priority="24">
       <formula>MONTH(F193)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194">
-    <cfRule type="expression" dxfId="362" priority="23">
+    <cfRule type="expression" dxfId="370" priority="23">
       <formula>MONTH(F194)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E195">
-    <cfRule type="expression" dxfId="361" priority="28">
+    <cfRule type="expression" dxfId="369" priority="28">
       <formula>MONTH(E195)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B193">
-    <cfRule type="expression" dxfId="360" priority="32">
+    <cfRule type="expression" dxfId="368" priority="32">
       <formula>MONTH(B193)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D193">
-    <cfRule type="expression" dxfId="359" priority="31">
+    <cfRule type="expression" dxfId="367" priority="31">
       <formula>MONTH(D193)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E193">
-    <cfRule type="expression" dxfId="358" priority="30">
+    <cfRule type="expression" dxfId="366" priority="30">
       <formula>MONTH(E193)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F193:F194">
-    <cfRule type="expression" dxfId="357" priority="25">
+    <cfRule type="expression" dxfId="365" priority="25">
       <formula>MONTH(F193)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F191">
-    <cfRule type="expression" dxfId="356" priority="19">
+    <cfRule type="expression" dxfId="364" priority="19">
       <formula>MONTH(F191)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F190">
-    <cfRule type="expression" dxfId="355" priority="20">
+    <cfRule type="expression" dxfId="363" priority="20">
       <formula>MONTH(F190)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C190">
-    <cfRule type="expression" dxfId="354" priority="21">
+    <cfRule type="expression" dxfId="362" priority="21">
       <formula>MONTH(C190)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F188">
-    <cfRule type="expression" dxfId="353" priority="18">
+    <cfRule type="expression" dxfId="361" priority="18">
       <formula>MONTH(F188)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F186">
-    <cfRule type="expression" dxfId="352" priority="17">
+    <cfRule type="expression" dxfId="360" priority="17">
       <formula>MONTH(F186)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E208">
-    <cfRule type="expression" dxfId="351" priority="13">
+    <cfRule type="expression" dxfId="359" priority="13">
       <formula>MONTH(E208)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E210">
-    <cfRule type="expression" dxfId="350" priority="11">
+    <cfRule type="expression" dxfId="358" priority="11">
       <formula>MONTH(E210)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E210">
-    <cfRule type="expression" dxfId="349" priority="10">
+    <cfRule type="expression" dxfId="357" priority="10">
       <formula>MONTH(E210)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F210">
-    <cfRule type="expression" dxfId="348" priority="6">
+    <cfRule type="expression" dxfId="356" priority="6">
       <formula>MONTH(F210)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F208:F209">
-    <cfRule type="expression" dxfId="347" priority="8">
+    <cfRule type="expression" dxfId="355" priority="8">
       <formula>MONTH(F208)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F209">
-    <cfRule type="expression" dxfId="346" priority="7">
+    <cfRule type="expression" dxfId="354" priority="7">
       <formula>MONTH(F209)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E210">
-    <cfRule type="expression" dxfId="345" priority="12">
+    <cfRule type="expression" dxfId="353" priority="12">
       <formula>MONTH(E210)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B208">
-    <cfRule type="expression" dxfId="344" priority="16">
+    <cfRule type="expression" dxfId="352" priority="16">
       <formula>MONTH(B208)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D208">
-    <cfRule type="expression" dxfId="343" priority="15">
+    <cfRule type="expression" dxfId="351" priority="15">
       <formula>MONTH(D208)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E208">
-    <cfRule type="expression" dxfId="342" priority="14">
+    <cfRule type="expression" dxfId="350" priority="14">
       <formula>MONTH(E208)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F208:F209">
-    <cfRule type="expression" dxfId="341" priority="9">
+    <cfRule type="expression" dxfId="349" priority="9">
       <formula>MONTH(F208)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F206">
-    <cfRule type="expression" dxfId="340" priority="3">
+    <cfRule type="expression" dxfId="348" priority="3">
       <formula>MONTH(F206)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F205">
-    <cfRule type="expression" dxfId="339" priority="4">
+    <cfRule type="expression" dxfId="347" priority="4">
       <formula>MONTH(F205)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D205">
-    <cfRule type="expression" dxfId="338" priority="5">
+    <cfRule type="expression" dxfId="346" priority="5">
       <formula>MONTH(D205)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F203">
-    <cfRule type="expression" dxfId="337" priority="2">
+    <cfRule type="expression" dxfId="345" priority="2">
       <formula>MONTH(F203)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F197">
-    <cfRule type="expression" dxfId="336" priority="1">
+    <cfRule type="expression" dxfId="344" priority="1">
       <formula>MONTH(F197)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15045,11 +15139,11 @@
       <c r="A1" s="1">
         <v>2020</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -15223,10 +15317,10 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="51.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="70"/>
+      <c r="B9" s="75"/>
       <c r="C9" s="15" t="s">
         <v>10</v>
       </c>
@@ -15270,30 +15364,30 @@
         <v>12</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="78" t="s">
+      <c r="C11" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="65" t="s">
+      <c r="D11" s="70" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="65" t="s">
+      <c r="F11" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="66"/>
+      <c r="G11" s="72"/>
     </row>
     <row r="12" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="67"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="71"/>
       <c r="E12" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="67"/>
-      <c r="G12" s="68"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="73"/>
     </row>
     <row r="13" spans="1:11" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
@@ -15320,16 +15414,16 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="74" t="s">
+      <c r="C14" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="75" t="s">
+      <c r="D14" s="67" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="9" t="s">
@@ -15339,10 +15433,10 @@
       <c r="G14" s="12"/>
     </row>
     <row r="15" spans="1:11" ht="23.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="71"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="75"/>
+      <c r="A15" s="76"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="67"/>
       <c r="E15" s="11" t="s">
         <v>6</v>
       </c>
@@ -15350,11 +15444,11 @@
       <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="72"/>
-      <c r="B16" s="76" t="s">
+      <c r="A16" s="77"/>
+      <c r="B16" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="77"/>
+      <c r="C16" s="79"/>
       <c r="D16" s="9" t="s">
         <v>55</v>
       </c>
@@ -15372,24 +15466,24 @@
       <c r="B17" s="12">
         <v>43865</v>
       </c>
-      <c r="C17" s="87" t="s">
+      <c r="C17" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
     </row>
     <row r="18" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="13"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -15407,212 +15501,212 @@
     <mergeCell ref="B16:C16"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:E3 A6:E6 A8:E8 A10:E10 A13:E13 A17 A4 D4 B11">
-    <cfRule type="expression" dxfId="335" priority="42">
+    <cfRule type="expression" dxfId="343" priority="42">
       <formula>MONTH(A3)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="expression" dxfId="334" priority="41">
+    <cfRule type="expression" dxfId="342" priority="41">
       <formula>MONTH(B4)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="333" priority="40">
+    <cfRule type="expression" dxfId="341" priority="40">
       <formula>MONTH(B5)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="332" priority="39">
+    <cfRule type="expression" dxfId="340" priority="39">
       <formula>MONTH(C4)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="331" priority="38">
+    <cfRule type="expression" dxfId="339" priority="38">
       <formula>MONTH(C4)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="330" priority="37">
+    <cfRule type="expression" dxfId="338" priority="37">
       <formula>MONTH(C5)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="329" priority="36">
+    <cfRule type="expression" dxfId="337" priority="36">
       <formula>MONTH(C5)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="328" priority="35">
+    <cfRule type="expression" dxfId="336" priority="35">
       <formula>MONTH(E4)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="327" priority="34">
+    <cfRule type="expression" dxfId="335" priority="34">
       <formula>MONTH(E5)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="expression" dxfId="326" priority="33">
+    <cfRule type="expression" dxfId="334" priority="33">
       <formula>MONTH(F4)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="expression" dxfId="325" priority="32">
+    <cfRule type="expression" dxfId="333" priority="32">
       <formula>MONTH(F3)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="expression" dxfId="324" priority="31">
+    <cfRule type="expression" dxfId="332" priority="31">
       <formula>MONTH(G3)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="323" priority="30">
+    <cfRule type="expression" dxfId="331" priority="30">
       <formula>MONTH(F6)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="322" priority="29">
+    <cfRule type="expression" dxfId="330" priority="29">
       <formula>MONTH(G6)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="expression" dxfId="321" priority="28">
+    <cfRule type="expression" dxfId="329" priority="28">
       <formula>MONTH(F8)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="320" priority="27">
+    <cfRule type="expression" dxfId="328" priority="27">
       <formula>MONTH(G8)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="319" priority="26">
+    <cfRule type="expression" dxfId="327" priority="26">
       <formula>MONTH(F10)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="318" priority="25">
+    <cfRule type="expression" dxfId="326" priority="25">
       <formula>MONTH(G10)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:F15">
-    <cfRule type="expression" dxfId="317" priority="24">
+    <cfRule type="expression" dxfId="325" priority="24">
       <formula>MONTH(F13)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13:G15">
-    <cfRule type="expression" dxfId="316" priority="23">
+    <cfRule type="expression" dxfId="324" priority="23">
       <formula>MONTH(G13)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="expression" dxfId="315" priority="22">
+    <cfRule type="expression" dxfId="323" priority="22">
       <formula>MONTH(B17)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="314" priority="21">
+    <cfRule type="expression" dxfId="322" priority="21">
       <formula>MONTH(E7)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="313" priority="20">
+    <cfRule type="expression" dxfId="321" priority="20">
       <formula>MONTH(E9)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="expression" dxfId="312" priority="19">
+    <cfRule type="expression" dxfId="320" priority="19">
       <formula>MONTH(A11)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="expression" dxfId="311" priority="18">
+    <cfRule type="expression" dxfId="319" priority="18">
       <formula>MONTH(A11)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="expression" dxfId="310" priority="17">
+    <cfRule type="expression" dxfId="318" priority="17">
       <formula>MONTH(A12)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="expression" dxfId="309" priority="16">
+    <cfRule type="expression" dxfId="317" priority="16">
       <formula>MONTH(A12)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="308" priority="15">
+    <cfRule type="expression" dxfId="316" priority="15">
       <formula>MONTH(C11)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="expression" dxfId="307" priority="14">
+    <cfRule type="expression" dxfId="315" priority="14">
       <formula>MONTH(E11)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="306" priority="13">
+    <cfRule type="expression" dxfId="314" priority="13">
       <formula>MONTH(E12)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="305" priority="12">
+    <cfRule type="expression" dxfId="313" priority="12">
       <formula>MONTH(A14)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="304" priority="11">
+    <cfRule type="expression" dxfId="312" priority="11">
       <formula>MONTH(C14)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="303" priority="6">
+    <cfRule type="expression" dxfId="311" priority="6">
       <formula>MONTH(D16)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="302" priority="10">
+    <cfRule type="expression" dxfId="310" priority="10">
       <formula>MONTH(D14)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="301" priority="9">
+    <cfRule type="expression" dxfId="309" priority="9">
       <formula>MONTH(D14)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="300" priority="8">
+    <cfRule type="expression" dxfId="308" priority="8">
       <formula>MONTH(D16)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="299" priority="7">
+    <cfRule type="expression" dxfId="307" priority="7">
       <formula>MONTH(D16)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="298" priority="5">
+    <cfRule type="expression" dxfId="306" priority="5">
       <formula>MONTH(J7)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="297" priority="2">
+    <cfRule type="expression" dxfId="305" priority="2">
       <formula>MONTH(E15)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="296" priority="1">
+    <cfRule type="expression" dxfId="304" priority="1">
       <formula>MONTH(E16)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E15">
-    <cfRule type="expression" dxfId="295" priority="4">
+    <cfRule type="expression" dxfId="303" priority="4">
       <formula>MONTH(E14)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E15">
-    <cfRule type="expression" dxfId="294" priority="3">
+    <cfRule type="expression" dxfId="302" priority="3">
       <formula>MONTH(E14)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15639,7 +15733,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15658,12 +15752,12 @@
         <f>YEAR(DATE(Calendar1Year,Calendar1MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="B1" s="85" t="str">
+      <c r="B1" s="84" t="str">
         <f>TEXT(DATE(Calendar1Year,Calendar1MonthOption+1,1),"mmmm")</f>
         <v>February</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="G1" s="2"/>
@@ -15731,16 +15825,16 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="57.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="67" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="9" t="s">
@@ -15754,10 +15848,10 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="71"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="75"/>
+      <c r="A5" s="76"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="67"/>
       <c r="E5" s="11" t="s">
         <v>6</v>
       </c>
@@ -15769,11 +15863,11 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="72"/>
-      <c r="B6" s="76" t="s">
+      <c r="A6" s="77"/>
+      <c r="B6" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="77"/>
+      <c r="C6" s="79"/>
       <c r="D6" s="9" t="s">
         <v>21</v>
       </c>
@@ -15861,10 +15955,10 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="68.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="70"/>
+      <c r="B10" s="75"/>
       <c r="C10" s="15" t="s">
         <v>10</v>
       </c>
@@ -15872,8 +15966,12 @@
       <c r="E10" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="F10" s="117" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="117" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
@@ -15904,30 +16002,30 @@
         <v>32</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="78" t="s">
+      <c r="C12" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="65" t="s">
+      <c r="D12" s="70" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="65" t="s">
+      <c r="F12" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="66"/>
+      <c r="G12" s="72"/>
     </row>
     <row r="13" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="23"/>
       <c r="B13" s="8"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="67"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="71"/>
       <c r="E13" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="67"/>
-      <c r="G13" s="68"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="73"/>
     </row>
     <row r="14" spans="1:11" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
@@ -15954,16 +16052,16 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="41.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="71" t="s">
+      <c r="A15" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="74" t="s">
+      <c r="C15" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="75" t="s">
+      <c r="D15" s="67" t="s">
         <v>20</v>
       </c>
       <c r="E15" s="9" t="s">
@@ -15973,10 +16071,10 @@
       <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:11" ht="36.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="71"/>
-      <c r="B16" s="73"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="75"/>
+      <c r="A16" s="76"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="67"/>
       <c r="E16" s="11" t="s">
         <v>6</v>
       </c>
@@ -15984,11 +16082,11 @@
       <c r="G16" s="12"/>
     </row>
     <row r="17" spans="1:7" ht="52.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="72"/>
-      <c r="B17" s="76" t="s">
+      <c r="A17" s="77"/>
+      <c r="B17" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="77"/>
+      <c r="C17" s="79"/>
       <c r="D17" s="9" t="s">
         <v>55</v>
       </c>
@@ -16006,31 +16104,25 @@
       <c r="B18" s="4">
         <v>43893</v>
       </c>
-      <c r="C18" s="86" t="s">
+      <c r="C18" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="86"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="86"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="91"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="84"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B6:C6"/>
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="A10:B10"/>
@@ -16042,185 +16134,201 @@
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:E3 A7:E7 A9:E9 A11:E11 A14:E14 A18:B18 A12:B12">
-    <cfRule type="expression" dxfId="293" priority="36">
+    <cfRule type="expression" dxfId="301" priority="38">
       <formula>MONTH(A3)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="292" priority="19">
+    <cfRule type="expression" dxfId="300" priority="21">
       <formula>MONTH(D6)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="291" priority="14">
+    <cfRule type="expression" dxfId="299" priority="16">
       <formula>MONTH(D15)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="290" priority="26">
+    <cfRule type="expression" dxfId="298" priority="28">
       <formula>MONTH(C12)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
+    <cfRule type="expression" dxfId="297" priority="37">
+      <formula>MONTH(A12)&lt;&gt;Calendar2MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12">
+    <cfRule type="expression" dxfId="296" priority="36">
+      <formula>MONTH(A12)&lt;&gt;Calendar2MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="expression" dxfId="295" priority="27">
+      <formula>MONTH(E12)&lt;&gt;Calendar1MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="expression" dxfId="294" priority="15">
+      <formula>MONTH(D15)&lt;&gt;Calendar1MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="293" priority="17">
+      <formula>MONTH(C15)&lt;&gt;Calendar3MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="expression" dxfId="292" priority="26">
+      <formula>MONTH(E13)&lt;&gt;Calendar1MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15">
+    <cfRule type="expression" dxfId="291" priority="18">
+      <formula>MONTH(A15)&lt;&gt;Calendar3MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="expression" dxfId="290" priority="12">
+      <formula>MONTH(D17)&lt;&gt;Calendar1MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F5 F7 F9 F11 F14:F16">
     <cfRule type="expression" dxfId="289" priority="35">
-      <formula>MONTH(A12)&lt;&gt;Calendar2MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
+      <formula>MONTH(F3)&lt;&gt;Calendar8MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G5 G7 G9 G11 G14:G16">
     <cfRule type="expression" dxfId="288" priority="34">
-      <formula>MONTH(A12)&lt;&gt;Calendar2MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="287" priority="25">
-      <formula>MONTH(E12)&lt;&gt;Calendar1MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="286" priority="13">
-      <formula>MONTH(D15)&lt;&gt;Calendar1MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="285" priority="15">
-      <formula>MONTH(C15)&lt;&gt;Calendar3MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="expression" dxfId="284" priority="24">
-      <formula>MONTH(E13)&lt;&gt;Calendar1MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15">
-    <cfRule type="expression" dxfId="283" priority="16">
-      <formula>MONTH(A15)&lt;&gt;Calendar3MonthOption</formula>
+      <formula>MONTH(G3)&lt;&gt;Calendar8MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="expression" dxfId="287" priority="32">
+      <formula>MONTH(E10)&lt;&gt;Calendar1MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="expression" dxfId="286" priority="22">
+      <formula>MONTH(D4)&lt;&gt;Calendar1MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="expression" dxfId="285" priority="33">
+      <formula>MONTH(E8)&lt;&gt;Calendar2MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="expression" dxfId="284" priority="31">
+      <formula>MONTH(A13)&lt;&gt;Calendar2MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="expression" dxfId="283" priority="30">
+      <formula>MONTH(A13)&lt;&gt;Calendar2MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="expression" dxfId="282" priority="29">
+      <formula>MONTH(A13)&lt;&gt;Calendar2MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="expression" dxfId="281" priority="20">
+      <formula>MONTH(D6)&lt;&gt;Calendar1MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="expression" dxfId="280" priority="19">
+      <formula>MONTH(D6)&lt;&gt;Calendar1MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="expression" dxfId="279" priority="25">
+      <formula>MONTH(A4)&lt;&gt;Calendar3MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="expression" dxfId="278" priority="24">
+      <formula>MONTH(C4)&lt;&gt;Calendar3MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="expression" dxfId="277" priority="23">
+      <formula>MONTH(D4)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="282" priority="10">
+    <cfRule type="expression" dxfId="276" priority="13">
       <formula>MONTH(D17)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F5 F7 F9 F11 F14:F16">
-    <cfRule type="expression" dxfId="281" priority="33">
-      <formula>MONTH(F3)&lt;&gt;Calendar8MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G5 G7 G9 G11 G14:G16">
-    <cfRule type="expression" dxfId="280" priority="32">
-      <formula>MONTH(G3)&lt;&gt;Calendar8MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="expression" dxfId="279" priority="30">
-      <formula>MONTH(E10)&lt;&gt;Calendar1MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="278" priority="20">
-      <formula>MONTH(D4)&lt;&gt;Calendar1MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="277" priority="31">
-      <formula>MONTH(E8)&lt;&gt;Calendar2MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13">
-    <cfRule type="expression" dxfId="276" priority="29">
-      <formula>MONTH(A13)&lt;&gt;Calendar2MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13">
-    <cfRule type="expression" dxfId="275" priority="28">
-      <formula>MONTH(A13)&lt;&gt;Calendar2MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13">
-    <cfRule type="expression" dxfId="274" priority="27">
-      <formula>MONTH(A13)&lt;&gt;Calendar2MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="273" priority="18">
-      <formula>MONTH(D6)&lt;&gt;Calendar1MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="272" priority="17">
-      <formula>MONTH(D6)&lt;&gt;Calendar1MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="expression" dxfId="271" priority="23">
-      <formula>MONTH(A4)&lt;&gt;Calendar3MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="270" priority="22">
-      <formula>MONTH(C4)&lt;&gt;Calendar3MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="269" priority="21">
-      <formula>MONTH(D4)&lt;&gt;Calendar3MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="268" priority="11">
-      <formula>MONTH(D17)&lt;&gt;Calendar1MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="267" priority="12">
+    <cfRule type="expression" dxfId="275" priority="14">
       <formula>MONTH(D17)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:E16">
-    <cfRule type="expression" dxfId="266" priority="4">
+    <cfRule type="expression" dxfId="274" priority="6">
       <formula>MONTH(E15)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="265" priority="6">
+    <cfRule type="expression" dxfId="273" priority="8">
       <formula>MONTH(E6)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="264" priority="3">
+    <cfRule type="expression" dxfId="272" priority="5">
       <formula>MONTH(E16)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E5">
-    <cfRule type="expression" dxfId="263" priority="8">
+    <cfRule type="expression" dxfId="271" priority="10">
       <formula>MONTH(E4)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E5">
-    <cfRule type="expression" dxfId="262" priority="9">
+    <cfRule type="expression" dxfId="270" priority="11">
       <formula>MONTH(E4)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="261" priority="7">
+    <cfRule type="expression" dxfId="269" priority="9">
       <formula>MONTH(E5)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="expression" dxfId="260" priority="2">
+    <cfRule type="expression" dxfId="268" priority="4">
       <formula>MONTH(E17)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:E16">
-    <cfRule type="expression" dxfId="259" priority="5">
+    <cfRule type="expression" dxfId="267" priority="7">
       <formula>MONTH(E15)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="258" priority="1">
+    <cfRule type="expression" dxfId="266" priority="3">
       <formula>MONTH(J7)&lt;&gt;Calendar1MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10">
+    <cfRule type="expression" dxfId="7" priority="2">
+      <formula>MONTH(F10)&lt;&gt;Calendar2MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10">
+    <cfRule type="expression" dxfId="6" priority="1">
+      <formula>MONTH(G10)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -16258,12 +16366,12 @@
         <f>YEAR(DATE(Calendar2Year,Calendar2MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="B1" s="85" t="str">
+      <c r="B1" s="84" t="str">
         <f>TEXT(DATE(Calendar2Year,Calendar2MonthOption+1,1),"mmmm")</f>
         <v>March</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="G1" s="2"/>
@@ -16331,16 +16439,16 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="49.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="67" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="9" t="s">
@@ -16354,10 +16462,10 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="71"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="75"/>
+      <c r="A5" s="76"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="67"/>
       <c r="E5" s="11" t="s">
         <v>6</v>
       </c>
@@ -16369,11 +16477,11 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="72"/>
-      <c r="B6" s="76" t="s">
+      <c r="A6" s="77"/>
+      <c r="B6" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="77"/>
+      <c r="C6" s="79"/>
       <c r="D6" s="9" t="s">
         <v>21</v>
       </c>
@@ -16461,10 +16569,10 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="60.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="70"/>
+      <c r="B10" s="75"/>
       <c r="C10" s="15" t="s">
         <v>10</v>
       </c>
@@ -16502,30 +16610,30 @@
     <row r="12" spans="1:11" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="96"/>
       <c r="B12" s="96"/>
-      <c r="C12" s="78" t="s">
+      <c r="C12" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="65" t="s">
+      <c r="D12" s="70" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="65" t="s">
+      <c r="F12" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="66"/>
+      <c r="G12" s="72"/>
     </row>
     <row r="13" spans="1:11" ht="54.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="97"/>
       <c r="B13" s="97"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="67"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="71"/>
       <c r="E13" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="67"/>
-      <c r="G13" s="68"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="73"/>
     </row>
     <row r="14" spans="1:11" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
@@ -16552,43 +16660,43 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="71" t="s">
+      <c r="A15" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="74" t="s">
+      <c r="C15" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="75" t="s">
+      <c r="D15" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="88" t="s">
+      <c r="E15" s="92" t="s">
         <v>22</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="71"/>
-      <c r="B16" s="73"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="88"/>
+      <c r="A16" s="76"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="92"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
     </row>
     <row r="17" spans="1:7" ht="53.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="72"/>
-      <c r="B17" s="76" t="s">
+      <c r="A17" s="77"/>
+      <c r="B17" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="77"/>
+      <c r="C17" s="79"/>
       <c r="D17" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="89"/>
+      <c r="E17" s="93"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
     </row>
@@ -16600,31 +16708,25 @@
       <c r="B18" s="4">
         <v>43921</v>
       </c>
-      <c r="C18" s="86" t="s">
+      <c r="C18" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="86"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="86"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="91"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="84"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B6:C6"/>
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="A10:B10"/>
@@ -16638,159 +16740,165 @@
     <mergeCell ref="E15:E17"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="A12:B13"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:E3 A7:E7 A9:E9 A11:E11 A14:E14 A18:B18">
-    <cfRule type="expression" dxfId="257" priority="31">
+    <cfRule type="expression" dxfId="265" priority="31">
       <formula>MONTH(A3)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="expression" dxfId="256" priority="17">
+    <cfRule type="expression" dxfId="264" priority="17">
       <formula>MONTH(A12)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="255" priority="27">
+    <cfRule type="expression" dxfId="263" priority="27">
       <formula>MONTH(C4)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="expression" dxfId="254" priority="14">
+    <cfRule type="expression" dxfId="262" priority="14">
       <formula>MONTH(E13)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F5 F7 F9 F11 F14:F16">
-    <cfRule type="expression" dxfId="253" priority="30">
+    <cfRule type="expression" dxfId="261" priority="30">
       <formula>MONTH(F3)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G5 G7 G9 G11 G14:G16">
-    <cfRule type="expression" dxfId="252" priority="29">
+    <cfRule type="expression" dxfId="260" priority="29">
       <formula>MONTH(G3)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="251" priority="8">
+    <cfRule type="expression" dxfId="259" priority="8">
       <formula>MONTH(D17)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="250" priority="10">
+    <cfRule type="expression" dxfId="258" priority="10">
       <formula>MONTH(D15)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="249" priority="22">
+    <cfRule type="expression" dxfId="257" priority="22">
       <formula>MONTH(D6)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="248" priority="15">
+    <cfRule type="expression" dxfId="256" priority="15">
       <formula>MONTH(E12)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="expression" dxfId="247" priority="28">
+    <cfRule type="expression" dxfId="255" priority="28">
       <formula>MONTH(A4)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="246" priority="16">
+    <cfRule type="expression" dxfId="254" priority="16">
       <formula>MONTH(C12)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="245" priority="7">
+    <cfRule type="expression" dxfId="253" priority="7">
       <formula>MONTH(D17)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="244" priority="9">
+    <cfRule type="expression" dxfId="252" priority="9">
       <formula>MONTH(D17)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="243" priority="11">
+    <cfRule type="expression" dxfId="251" priority="11">
       <formula>MONTH(D15)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="242" priority="26">
+    <cfRule type="expression" dxfId="250" priority="26">
       <formula>MONTH(D4)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="241" priority="25">
+    <cfRule type="expression" dxfId="249" priority="25">
       <formula>MONTH(D4)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="240" priority="24">
+    <cfRule type="expression" dxfId="248" priority="24">
       <formula>MONTH(D6)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="239" priority="23">
+    <cfRule type="expression" dxfId="247" priority="23">
       <formula>MONTH(D6)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="238" priority="21">
+    <cfRule type="expression" dxfId="246" priority="21">
       <formula>MONTH(E8)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="expression" dxfId="237" priority="20">
+    <cfRule type="expression" dxfId="245" priority="20">
       <formula>MONTH(E10)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="expression" dxfId="236" priority="19">
+    <cfRule type="expression" dxfId="244" priority="19">
       <formula>MONTH(A12)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="expression" dxfId="235" priority="18">
+    <cfRule type="expression" dxfId="243" priority="18">
       <formula>MONTH(A12)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="234" priority="3">
+    <cfRule type="expression" dxfId="242" priority="3">
       <formula>MONTH(E6)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="233" priority="4">
+    <cfRule type="expression" dxfId="241" priority="4">
       <formula>MONTH(E5)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E5">
-    <cfRule type="expression" dxfId="232" priority="6">
+    <cfRule type="expression" dxfId="240" priority="6">
       <formula>MONTH(E4)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E5">
-    <cfRule type="expression" dxfId="231" priority="5">
+    <cfRule type="expression" dxfId="239" priority="5">
       <formula>MONTH(E4)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="expression" dxfId="230" priority="13">
+    <cfRule type="expression" dxfId="238" priority="13">
       <formula>MONTH(A15)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="229" priority="12">
+    <cfRule type="expression" dxfId="237" priority="12">
       <formula>MONTH(C15)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="228" priority="2">
+    <cfRule type="expression" dxfId="236" priority="2">
       <formula>MONTH(E15)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="227" priority="1">
+    <cfRule type="expression" dxfId="235" priority="1">
       <formula>MONTH(J7)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16828,12 +16936,12 @@
         <f>YEAR(DATE(Calendar3Year,Calendar3MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="B1" s="85" t="str">
+      <c r="B1" s="84" t="str">
         <f>TEXT(DATE(Calendar3Year,Calendar3MonthOption+1,1),"mmmm")</f>
         <v>April</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="G1" s="2"/>
@@ -17004,10 +17112,10 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="70"/>
+      <c r="B9" s="75"/>
       <c r="C9" s="15" t="s">
         <v>10</v>
       </c>
@@ -17049,30 +17157,30 @@
     <row r="11" spans="1:11" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="96"/>
       <c r="B11" s="96"/>
-      <c r="C11" s="78" t="s">
+      <c r="C11" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="65" t="s">
+      <c r="D11" s="70" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="65" t="s">
+      <c r="F11" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="66"/>
+      <c r="G11" s="72"/>
     </row>
     <row r="12" spans="1:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="97"/>
       <c r="B12" s="97"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="67"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="71"/>
       <c r="E12" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="67"/>
-      <c r="G12" s="68"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="73"/>
     </row>
     <row r="13" spans="1:11" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
@@ -17099,16 +17207,16 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="74" t="s">
+      <c r="C14" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="75" t="s">
+      <c r="D14" s="67" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="9" t="s">
@@ -17118,10 +17226,10 @@
       <c r="G14" s="101"/>
     </row>
     <row r="15" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="71"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="75"/>
+      <c r="A15" s="76"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="67"/>
       <c r="E15" s="11" t="s">
         <v>6</v>
       </c>
@@ -17129,11 +17237,11 @@
       <c r="G15" s="102"/>
     </row>
     <row r="16" spans="1:11" ht="48.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="72"/>
-      <c r="B16" s="76" t="s">
+      <c r="A16" s="77"/>
+      <c r="B16" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="77"/>
+      <c r="C16" s="79"/>
       <c r="D16" s="9" t="s">
         <v>55</v>
       </c>
@@ -17151,30 +17259,25 @@
       <c r="B17" s="4">
         <v>43956</v>
       </c>
-      <c r="C17" s="82" t="s">
+      <c r="C17" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="89"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="C17:G17"/>
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="A9:B9"/>
@@ -17190,119 +17293,124 @@
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="C17:G17"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:E4 A6:E6 A8:E8 A10:E10 A13:E13 A17:B17 A11:B11">
-    <cfRule type="expression" dxfId="226" priority="23">
+    <cfRule type="expression" dxfId="234" priority="23">
       <formula>MONTH(A3)&lt;&gt;Calendar4MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F4 F6 F8 F10 F13:F14">
-    <cfRule type="expression" dxfId="225" priority="22">
+    <cfRule type="expression" dxfId="233" priority="22">
       <formula>MONTH(F3)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G4 G6 G8 G10 G13:G14">
-    <cfRule type="expression" dxfId="224" priority="21">
+    <cfRule type="expression" dxfId="232" priority="21">
       <formula>MONTH(G3)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="223" priority="13">
+    <cfRule type="expression" dxfId="231" priority="13">
       <formula>MONTH(D16)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="222" priority="6">
+    <cfRule type="expression" dxfId="230" priority="6">
       <formula>MONTH(E5)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="221" priority="10">
+    <cfRule type="expression" dxfId="229" priority="10">
       <formula>MONTH(E12)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="220" priority="16">
+    <cfRule type="expression" dxfId="228" priority="16">
       <formula>MONTH(D14)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="expression" dxfId="219" priority="11">
+    <cfRule type="expression" dxfId="227" priority="11">
       <formula>MONTH(E11)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="218" priority="15">
+    <cfRule type="expression" dxfId="226" priority="15">
       <formula>MONTH(D16)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="217" priority="18">
+    <cfRule type="expression" dxfId="225" priority="18">
       <formula>MONTH(C14)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="216" priority="3">
+    <cfRule type="expression" dxfId="224" priority="3">
       <formula>MONTH(E15)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E15">
-    <cfRule type="expression" dxfId="215" priority="5">
+    <cfRule type="expression" dxfId="223" priority="5">
       <formula>MONTH(E14)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E15">
-    <cfRule type="expression" dxfId="214" priority="4">
+    <cfRule type="expression" dxfId="222" priority="4">
       <formula>MONTH(E14)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="213" priority="20">
+    <cfRule type="expression" dxfId="221" priority="20">
       <formula>MONTH(E7)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="212" priority="14">
+    <cfRule type="expression" dxfId="220" priority="14">
       <formula>MONTH(D16)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="211" priority="19">
+    <cfRule type="expression" dxfId="219" priority="19">
       <formula>MONTH(A14)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="210" priority="17">
+    <cfRule type="expression" dxfId="218" priority="17">
       <formula>MONTH(D14)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="209" priority="12">
+    <cfRule type="expression" dxfId="217" priority="12">
       <formula>MONTH(C11)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="208" priority="9">
+    <cfRule type="expression" dxfId="216" priority="9">
       <formula>MONTH(E9)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E5">
-    <cfRule type="expression" dxfId="207" priority="8">
+    <cfRule type="expression" dxfId="215" priority="8">
       <formula>MONTH(E4)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E5">
-    <cfRule type="expression" dxfId="206" priority="7">
+    <cfRule type="expression" dxfId="214" priority="7">
       <formula>MONTH(E4)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="205" priority="2">
+    <cfRule type="expression" dxfId="213" priority="2">
       <formula>MONTH(E16)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="204" priority="1">
+    <cfRule type="expression" dxfId="212" priority="1">
       <formula>MONTH(J7)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17341,12 +17449,12 @@
         <f>YEAR(DATE(Calendar4Year,Calendar4MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="B1" s="85" t="str">
+      <c r="B1" s="84" t="str">
         <f>TEXT(DATE(Calendar4Year,Calendar4MonthOption+1,1),"mmmm")</f>
         <v>May</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="G1" s="2"/>
@@ -17414,16 +17522,16 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="35.549999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="67" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="9" t="s">
@@ -17437,10 +17545,10 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="32.549999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="71"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="75"/>
+      <c r="A5" s="76"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="67"/>
       <c r="E5" s="11" t="s">
         <v>6</v>
       </c>
@@ -17452,11 +17560,11 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="72"/>
-      <c r="B6" s="76" t="s">
+      <c r="A6" s="77"/>
+      <c r="B6" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="77"/>
+      <c r="C6" s="79"/>
       <c r="D6" s="9" t="s">
         <v>21</v>
       </c>
@@ -17544,10 +17652,10 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="46.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="70"/>
+      <c r="B10" s="75"/>
       <c r="C10" s="15" t="s">
         <v>10</v>
       </c>
@@ -17585,30 +17693,30 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="96"/>
       <c r="B12" s="96"/>
-      <c r="C12" s="78" t="s">
+      <c r="C12" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="65" t="s">
+      <c r="D12" s="70" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="65" t="s">
+      <c r="F12" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="66"/>
+      <c r="G12" s="72"/>
     </row>
     <row r="13" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A13" s="97"/>
       <c r="B13" s="97"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="67"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="71"/>
       <c r="E13" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="67"/>
-      <c r="G13" s="68"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="73"/>
     </row>
     <row r="14" spans="1:11" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
@@ -17638,13 +17746,13 @@
       <c r="A15" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="74" t="s">
+      <c r="C15" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="75" t="s">
+      <c r="D15" s="67" t="s">
         <v>20</v>
       </c>
       <c r="E15" s="9" t="s">
@@ -17655,9 +17763,9 @@
     </row>
     <row r="16" spans="1:11" ht="35.549999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
-      <c r="B16" s="73"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="75"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="67"/>
       <c r="E16" s="11" t="s">
         <v>6</v>
       </c>
@@ -17665,11 +17773,11 @@
       <c r="G16" s="12"/>
     </row>
     <row r="17" spans="1:7" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="90" t="s">
+      <c r="A17" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="90"/>
-      <c r="C17" s="91"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="86"/>
       <c r="D17" s="9" t="s">
         <v>55</v>
       </c>
@@ -17687,31 +17795,25 @@
       <c r="B18" s="4">
         <v>43984</v>
       </c>
-      <c r="C18" s="82" t="s">
+      <c r="C18" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="84"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B6:C6"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="C19:G19"/>
@@ -17724,174 +17826,180 @@
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:E3 A7:E7 A9:E9 A11:E11 A14:E14 A18:B18 A15:A16 A12:B12">
-    <cfRule type="expression" dxfId="203" priority="34">
+    <cfRule type="expression" dxfId="211" priority="34">
       <formula>MONTH(A3)&lt;&gt;Calendar5MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="expression" dxfId="202" priority="33">
+    <cfRule type="expression" dxfId="210" priority="33">
       <formula>MONTH(A15)&lt;&gt;Calendar5MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="expression" dxfId="201" priority="32">
+    <cfRule type="expression" dxfId="209" priority="32">
       <formula>MONTH(A15)&lt;&gt;Calendar5MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F5 F7 F9 F11 F14:F16">
-    <cfRule type="expression" dxfId="200" priority="31">
+    <cfRule type="expression" dxfId="208" priority="31">
       <formula>MONTH(F3)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G5 G7 G9 G11 G14:G16">
-    <cfRule type="expression" dxfId="199" priority="30">
+    <cfRule type="expression" dxfId="207" priority="30">
       <formula>MONTH(G3)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:E16">
-    <cfRule type="expression" dxfId="198" priority="23">
+    <cfRule type="expression" dxfId="206" priority="23">
       <formula>MONTH(E15)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="197" priority="25">
+    <cfRule type="expression" dxfId="205" priority="25">
       <formula>MONTH(D17)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E5">
-    <cfRule type="expression" dxfId="196" priority="6">
+    <cfRule type="expression" dxfId="204" priority="6">
       <formula>MONTH(E4)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:E16">
-    <cfRule type="expression" dxfId="195" priority="22">
+    <cfRule type="expression" dxfId="203" priority="22">
       <formula>MONTH(E15)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="194" priority="2">
+    <cfRule type="expression" dxfId="202" priority="2">
       <formula>MONTH(E8)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="193" priority="27">
+    <cfRule type="expression" dxfId="201" priority="27">
       <formula>MONTH(D15)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="expression" dxfId="192" priority="15">
+    <cfRule type="expression" dxfId="200" priority="15">
       <formula>MONTH(E13)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="expression" dxfId="191" priority="14">
+    <cfRule type="expression" dxfId="199" priority="14">
       <formula>MONTH(E10)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="190" priority="16">
+    <cfRule type="expression" dxfId="198" priority="16">
       <formula>MONTH(E12)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="189" priority="24">
+    <cfRule type="expression" dxfId="197" priority="24">
       <formula>MONTH(D17)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E5">
-    <cfRule type="expression" dxfId="188" priority="5">
+    <cfRule type="expression" dxfId="196" priority="5">
       <formula>MONTH(E4)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="expression" dxfId="187" priority="20">
+    <cfRule type="expression" dxfId="195" priority="20">
       <formula>MONTH(E17)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="186" priority="9">
+    <cfRule type="expression" dxfId="194" priority="9">
       <formula>MONTH(D6)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="185" priority="10">
+    <cfRule type="expression" dxfId="193" priority="10">
       <formula>MONTH(D4)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="184" priority="29">
+    <cfRule type="expression" dxfId="192" priority="29">
       <formula>MONTH(C15)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="183" priority="28">
+    <cfRule type="expression" dxfId="191" priority="28">
       <formula>MONTH(D15)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="182" priority="26">
+    <cfRule type="expression" dxfId="190" priority="26">
       <formula>MONTH(D17)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="181" priority="21">
+    <cfRule type="expression" dxfId="189" priority="21">
       <formula>MONTH(E16)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="180" priority="8">
+    <cfRule type="expression" dxfId="188" priority="8">
       <formula>MONTH(D6)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="expression" dxfId="179" priority="19">
+    <cfRule type="expression" dxfId="187" priority="19">
       <formula>MONTH(A16)&lt;&gt;Calendar5MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="expression" dxfId="178" priority="18">
+    <cfRule type="expression" dxfId="186" priority="18">
       <formula>MONTH(A16)&lt;&gt;Calendar5MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="177" priority="4">
+    <cfRule type="expression" dxfId="185" priority="4">
       <formula>MONTH(E5)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="176" priority="17">
+    <cfRule type="expression" dxfId="184" priority="17">
       <formula>MONTH(C12)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="175" priority="7">
+    <cfRule type="expression" dxfId="183" priority="7">
       <formula>MONTH(D6)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="expression" dxfId="174" priority="13">
+    <cfRule type="expression" dxfId="182" priority="13">
       <formula>MONTH(A4)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="173" priority="12">
+    <cfRule type="expression" dxfId="181" priority="12">
       <formula>MONTH(C4)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="172" priority="11">
+    <cfRule type="expression" dxfId="180" priority="11">
       <formula>MONTH(D4)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="171" priority="3">
+    <cfRule type="expression" dxfId="179" priority="3">
       <formula>MONTH(E6)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="170" priority="1">
+    <cfRule type="expression" dxfId="178" priority="1">
       <formula>MONTH(J7)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17908,8 +18016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2BACBB1-C8D5-4586-96C3-1E8D11ED2237}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17929,12 +18037,12 @@
         <f>YEAR(DATE(Calendar5Year,Calendar5MonthOption+1,1))</f>
         <v>2020</v>
       </c>
-      <c r="B1" s="85" t="str">
+      <c r="B1" s="84" t="str">
         <f>TEXT(DATE(Calendar5Year,Calendar5MonthOption+1,1),"mmmm")</f>
         <v>June</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="G1" s="2"/>
@@ -18046,11 +18154,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="45.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="69" t="s">
+    <row r="6" spans="1:11" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="70"/>
+      <c r="B6" s="75"/>
       <c r="C6" s="15" t="s">
         <v>10</v>
       </c>
@@ -18058,8 +18166,12 @@
       <c r="E6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="F6" s="117" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="117" t="s">
+        <v>90</v>
+      </c>
       <c r="J6" s="20"/>
       <c r="K6" t="s">
         <v>28</v>
@@ -18096,19 +18208,19 @@
     <row r="8" spans="1:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="96"/>
       <c r="B8" s="96"/>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="70" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="65" t="s">
+      <c r="F8" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="66"/>
+      <c r="G8" s="72"/>
       <c r="J8" s="21"/>
       <c r="K8" t="s">
         <v>30</v>
@@ -18117,13 +18229,13 @@
     <row r="9" spans="1:11" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="97"/>
       <c r="B9" s="97"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="67"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="71"/>
       <c r="E9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="67"/>
-      <c r="G9" s="68"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="73"/>
       <c r="J9" s="22"/>
       <c r="K9" t="s">
         <v>31</v>
@@ -18154,43 +18266,43 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="71" t="s">
+      <c r="A11" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="75" t="s">
+      <c r="D11" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="92" t="s">
+      <c r="E11" s="82" t="s">
         <v>22</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:11" ht="52.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="71"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="92"/>
+      <c r="A12" s="76"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="82"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:11" ht="49.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="72"/>
-      <c r="B13" s="76" t="s">
+      <c r="A13" s="77"/>
+      <c r="B13" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="77"/>
+      <c r="C13" s="79"/>
       <c r="D13" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="93"/>
+      <c r="E13" s="83"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
     </row>
@@ -18248,25 +18360,28 @@
       <c r="B17" s="4">
         <v>44019</v>
       </c>
-      <c r="C17" s="82" t="s">
+      <c r="C17" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="89"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B15:B16"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="C17:G17"/>
@@ -18283,108 +18398,115 @@
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B15:B16"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:E3 A5:E5 A7:E7 A10:E10 A14:E15 A17:B17 A8:B8">
-    <cfRule type="expression" dxfId="169" priority="20">
+    <cfRule type="expression" dxfId="177" priority="22">
       <formula>MONTH(A3)&lt;&gt;Calendar6MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3 F5 F7 F10:F12 F14:F15">
-    <cfRule type="expression" dxfId="168" priority="19">
+    <cfRule type="expression" dxfId="176" priority="21">
       <formula>MONTH(F3)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3 G5 G7 G10:G12 G14:G15">
-    <cfRule type="expression" dxfId="167" priority="18">
+    <cfRule type="expression" dxfId="175" priority="20">
       <formula>MONTH(G3)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="166" priority="11">
+    <cfRule type="expression" dxfId="174" priority="13">
       <formula>MONTH(D13)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:D16">
-    <cfRule type="expression" dxfId="165" priority="8">
+    <cfRule type="expression" dxfId="173" priority="10">
       <formula>MONTH(D15)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="164" priority="3">
+    <cfRule type="expression" dxfId="172" priority="5">
       <formula>MONTH(E8)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
+    <cfRule type="expression" dxfId="171" priority="6">
+      <formula>MONTH(C8)&lt;&gt;Calendar1MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="expression" dxfId="170" priority="18">
+      <formula>MONTH(E6)&lt;&gt;Calendar1MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="expression" dxfId="169" priority="7">
+      <formula>MONTH(E11)&lt;&gt;Calendar2MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="expression" dxfId="168" priority="14">
+      <formula>MONTH(D11)&lt;&gt;Calendar1MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="expression" dxfId="167" priority="8">
+      <formula>MONTH(D16)&lt;&gt;Calendar1MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15:D16">
+    <cfRule type="expression" dxfId="166" priority="9">
+      <formula>MONTH(D15)&lt;&gt;Calendar1MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="expression" dxfId="165" priority="12">
+      <formula>MONTH(D13)&lt;&gt;Calendar1MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="expression" dxfId="164" priority="19">
+      <formula>MONTH(E4)&lt;&gt;Calendar2MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
     <cfRule type="expression" dxfId="163" priority="4">
-      <formula>MONTH(C8)&lt;&gt;Calendar1MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="162" priority="16">
-      <formula>MONTH(E6)&lt;&gt;Calendar1MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
-    <cfRule type="expression" dxfId="161" priority="5">
-      <formula>MONTH(E11)&lt;&gt;Calendar2MonthOption</formula>
+      <formula>MONTH(E9)&lt;&gt;Calendar1MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="expression" dxfId="162" priority="11">
+      <formula>MONTH(D13)&lt;&gt;Calendar1MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
+    <cfRule type="expression" dxfId="161" priority="17">
+      <formula>MONTH(A11)&lt;&gt;Calendar3MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="expression" dxfId="160" priority="16">
+      <formula>MONTH(C11)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="160" priority="12">
-      <formula>MONTH(D11)&lt;&gt;Calendar1MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="159" priority="6">
-      <formula>MONTH(D16)&lt;&gt;Calendar1MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15:D16">
-    <cfRule type="expression" dxfId="158" priority="7">
-      <formula>MONTH(D15)&lt;&gt;Calendar1MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="157" priority="10">
-      <formula>MONTH(D13)&lt;&gt;Calendar1MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="156" priority="17">
-      <formula>MONTH(E4)&lt;&gt;Calendar2MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="155" priority="2">
-      <formula>MONTH(E9)&lt;&gt;Calendar1MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="154" priority="9">
-      <formula>MONTH(D13)&lt;&gt;Calendar1MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11">
-    <cfRule type="expression" dxfId="153" priority="15">
-      <formula>MONTH(A11)&lt;&gt;Calendar3MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="152" priority="14">
-      <formula>MONTH(C11)&lt;&gt;Calendar3MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="151" priority="13">
+    <cfRule type="expression" dxfId="159" priority="15">
       <formula>MONTH(D11)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="150" priority="1">
+    <cfRule type="expression" dxfId="158" priority="3">
       <formula>MONTH(J7)&lt;&gt;Calendar1MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>MONTH(F6)&lt;&gt;Calendar2MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>MONTH(G6)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
